--- a/database/spreadsheets/SECURITY-GUARD-MASTERLIST-2024.xlsx
+++ b/database/spreadsheets/SECURITY-GUARD-MASTERLIST-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\CENY FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03262F3E-4A18-4540-B13A-D9AAE19BD881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12230E4C-6BF0-4328-91F1-FE1B19313402}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12960" windowHeight="5955" tabRatio="803" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3961" uniqueCount="3331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4151" uniqueCount="3492">
   <si>
     <t>BIRTHDAY</t>
   </si>
@@ -10018,6 +10018,489 @@
   </si>
   <si>
     <t>CRISPIN DELA CRUZ GOV. GEN</t>
+  </si>
+  <si>
+    <t>ID NUMBER</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0107</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>0112</t>
+  </si>
+  <si>
+    <t>0116</t>
+  </si>
+  <si>
+    <t>0117</t>
+  </si>
+  <si>
+    <t>0124</t>
+  </si>
+  <si>
+    <t>0127</t>
+  </si>
+  <si>
+    <t>0128</t>
+  </si>
+  <si>
+    <t>0129</t>
+  </si>
+  <si>
+    <t>0130</t>
+  </si>
+  <si>
+    <t>0132</t>
+  </si>
+  <si>
+    <t>0135</t>
+  </si>
+  <si>
+    <t>0136</t>
+  </si>
+  <si>
+    <t>0140</t>
+  </si>
+  <si>
+    <t>0105 / 0146</t>
+  </si>
+  <si>
+    <t>071 / 0147</t>
+  </si>
+  <si>
+    <t>0148</t>
+  </si>
+  <si>
+    <t>0149</t>
+  </si>
+  <si>
+    <t>0151</t>
+  </si>
+  <si>
+    <t>0152</t>
+  </si>
+  <si>
+    <t>0153</t>
+  </si>
+  <si>
+    <t>0156</t>
+  </si>
+  <si>
+    <t>0158</t>
+  </si>
+  <si>
+    <t>0159</t>
+  </si>
+  <si>
+    <t>0161</t>
+  </si>
+  <si>
+    <t>0162</t>
+  </si>
+  <si>
+    <t>0164</t>
+  </si>
+  <si>
+    <t>0165</t>
+  </si>
+  <si>
+    <t>0166</t>
+  </si>
+  <si>
+    <t>0169</t>
+  </si>
+  <si>
+    <t>0170</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>0173</t>
+  </si>
+  <si>
+    <t>0176</t>
+  </si>
+  <si>
+    <t>0178</t>
+  </si>
+  <si>
+    <t>0181</t>
+  </si>
+  <si>
+    <t>0182</t>
+  </si>
+  <si>
+    <t>0186</t>
+  </si>
+  <si>
+    <t>0188</t>
+  </si>
+  <si>
+    <t>0190</t>
+  </si>
+  <si>
+    <t>0191</t>
+  </si>
+  <si>
+    <t>0192</t>
+  </si>
+  <si>
+    <t>0194</t>
+  </si>
+  <si>
+    <t>0196</t>
+  </si>
+  <si>
+    <t>0197</t>
+  </si>
+  <si>
+    <t>0198</t>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>0213</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>0216</t>
+  </si>
+  <si>
+    <t>0217</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0221</t>
+  </si>
+  <si>
+    <t>0222</t>
+  </si>
+  <si>
+    <t>0223</t>
+  </si>
+  <si>
+    <t>0224</t>
+  </si>
+  <si>
+    <t>0225</t>
+  </si>
+  <si>
+    <t>0226</t>
+  </si>
+  <si>
+    <t>0227</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <t>0305</t>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>0309</t>
+  </si>
+  <si>
+    <t>0310</t>
+  </si>
+  <si>
+    <t>0311</t>
+  </si>
+  <si>
+    <t>0312</t>
+  </si>
+  <si>
+    <t>0313</t>
+  </si>
+  <si>
+    <t>0314</t>
+  </si>
+  <si>
+    <t>0131/0315</t>
+  </si>
+  <si>
+    <t>0316</t>
+  </si>
+  <si>
+    <t>0317</t>
+  </si>
+  <si>
+    <t>0318</t>
+  </si>
+  <si>
+    <t>0319</t>
+  </si>
+  <si>
+    <t>0320</t>
+  </si>
+  <si>
+    <t>0321</t>
+  </si>
+  <si>
+    <t>0322</t>
+  </si>
+  <si>
+    <t>0303 / 0323</t>
+  </si>
+  <si>
+    <t>0324</t>
+  </si>
+  <si>
+    <t>0325</t>
+  </si>
+  <si>
+    <t>0326</t>
+  </si>
+  <si>
+    <t>0327</t>
+  </si>
+  <si>
+    <t>0328</t>
+  </si>
+  <si>
+    <t>0329</t>
+  </si>
+  <si>
+    <t>0330</t>
+  </si>
+  <si>
+    <t>0331</t>
+  </si>
+  <si>
+    <t>0333</t>
+  </si>
+  <si>
+    <t>0334</t>
+  </si>
+  <si>
+    <t>0335</t>
+  </si>
+  <si>
+    <t>0336</t>
+  </si>
+  <si>
+    <t>0337</t>
+  </si>
+  <si>
+    <t>0338</t>
+  </si>
+  <si>
+    <t>0183 / 0339</t>
+  </si>
+  <si>
+    <t>0340</t>
+  </si>
+  <si>
+    <t>0341</t>
+  </si>
+  <si>
+    <t>0342</t>
+  </si>
+  <si>
+    <t>0343</t>
+  </si>
+  <si>
+    <t>0110 / 0344</t>
+  </si>
+  <si>
+    <t>0345</t>
+  </si>
+  <si>
+    <t>0346</t>
+  </si>
+  <si>
+    <t>0347</t>
+  </si>
+  <si>
+    <t>0348</t>
+  </si>
+  <si>
+    <t>0349</t>
+  </si>
+  <si>
+    <t>0350</t>
+  </si>
+  <si>
+    <t>0351</t>
+  </si>
+  <si>
+    <t>0353</t>
   </si>
 </sst>
 </file>
@@ -10181,7 +10664,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -10215,12 +10698,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10372,13 +10868,7 @@
     <xf numFmtId="14" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10388,6 +10878,75 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="8" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10676,10 +11235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S516"/>
+  <dimension ref="A1:T516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J508" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B381" sqref="B381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10695,9 +11254,10 @@
     <col min="10" max="10" width="28.28515625" style="5" customWidth="1"/>
     <col min="11" max="13" width="26.7109375" style="5" customWidth="1"/>
     <col min="14" max="14" width="35.140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="26.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -10712,8 +11272,9 @@
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O1" s="20"/>
+    </row>
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>2145</v>
       </c>
@@ -10756,11 +11317,14 @@
       <c r="N2" s="3" t="s">
         <v>3247</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="57" t="s">
+        <v>3331</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="43"/>
       <c r="B3" s="31" t="s">
         <v>147</v>
@@ -10794,11 +11358,12 @@
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="50">
+      <c r="N3" s="58">
         <v>44567</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O3" s="50"/>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="43"/>
       <c r="B4" s="31" t="s">
         <v>181</v>
@@ -10836,11 +11401,14 @@
       <c r="M4" s="28">
         <v>46116</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="58">
         <v>44567</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O4" s="73" t="s">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
       <c r="B5" s="31" t="s">
         <v>271</v>
@@ -10876,11 +11444,14 @@
       <c r="M5" s="6" t="s">
         <v>1733</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="N5" s="59" t="s">
         <v>3248</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O5" s="74" t="s">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="43"/>
       <c r="B6" s="31" t="s">
         <v>279</v>
@@ -10918,11 +11489,12 @@
       <c r="M6" s="32" t="s">
         <v>1726</v>
       </c>
-      <c r="N6" s="50">
+      <c r="N6" s="58">
         <v>44567</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O6" s="50"/>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="31" t="s">
         <v>286</v>
@@ -10958,11 +11530,14 @@
       <c r="M7" s="6" t="s">
         <v>1722</v>
       </c>
-      <c r="N7" s="50">
+      <c r="N7" s="58">
         <v>44567</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O7" s="73" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="31" t="s">
         <v>295</v>
@@ -10994,11 +11569,14 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="50">
+      <c r="N8" s="58">
         <v>44567</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O8" s="73" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" s="31" t="s">
         <v>302</v>
@@ -11034,11 +11612,14 @@
       <c r="M9" s="6" t="s">
         <v>1729</v>
       </c>
-      <c r="N9" s="50">
+      <c r="N9" s="58">
         <v>44567</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O9" s="73" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="31" t="s">
         <v>353</v>
@@ -11070,11 +11651,12 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="52">
+      <c r="N10" s="60">
         <v>44937</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O10" s="52"/>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="31" t="s">
         <v>362</v>
@@ -11110,11 +11692,14 @@
       <c r="M11" s="6" t="s">
         <v>1737</v>
       </c>
-      <c r="N11" s="50">
+      <c r="N11" s="58">
         <v>44567</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O11" s="73" t="s">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="31" t="s">
         <v>1615</v>
@@ -11150,11 +11735,12 @@
       <c r="M12" s="6" t="s">
         <v>1735</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="58">
         <v>44567</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O12" s="50"/>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="31" t="s">
         <v>2186</v>
@@ -11192,14 +11778,15 @@
       <c r="M13" s="37" t="s">
         <v>1731</v>
       </c>
-      <c r="N13" s="51" t="s">
+      <c r="N13" s="59" t="s">
         <v>3249</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="O13" s="51"/>
+      <c r="Q13" s="2" t="s">
         <v>3256</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="31" t="s">
         <v>1622</v>
@@ -11235,11 +11822,14 @@
       <c r="M14" s="35">
         <v>47240</v>
       </c>
-      <c r="N14" s="53" t="s">
+      <c r="N14" s="61" t="s">
         <v>3250</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O14" s="79" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
       <c r="B15" s="31" t="s">
         <v>599</v>
@@ -11275,11 +11865,14 @@
       <c r="M15" s="6" t="s">
         <v>1718</v>
       </c>
-      <c r="N15" s="51" t="s">
+      <c r="N15" s="59" t="s">
         <v>3251</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O15" s="74" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="31" t="s">
         <v>607</v>
@@ -11311,11 +11904,14 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="50">
+      <c r="N16" s="58">
         <v>44567</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O16" s="73" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="31" t="s">
         <v>614</v>
@@ -11351,11 +11947,14 @@
       <c r="M17" s="6" t="s">
         <v>1716</v>
       </c>
-      <c r="N17" s="56">
+      <c r="N17" s="62">
         <v>44774</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O17" s="75" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>2749</v>
       </c>
@@ -11383,9 +11982,12 @@
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N18" s="63"/>
+      <c r="O18" s="7" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="31" t="s">
         <v>629</v>
@@ -11417,11 +12019,12 @@
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="51" t="s">
+      <c r="N19" s="59" t="s">
         <v>3250</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O19" s="51"/>
+    </row>
+    <row r="20" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="31" t="s">
         <v>652</v>
@@ -11457,9 +12060,10 @@
       <c r="M20" s="35">
         <v>45480</v>
       </c>
-      <c r="N20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N20" s="63"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>2749</v>
       </c>
@@ -11497,9 +12101,12 @@
       <c r="M21" s="6" t="s">
         <v>1720</v>
       </c>
-      <c r="N21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N21" s="63"/>
+      <c r="O21" s="7" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="31" t="s">
         <v>769</v>
@@ -11537,11 +12144,14 @@
       <c r="M22" s="35">
         <v>45477</v>
       </c>
-      <c r="N22" s="54">
+      <c r="N22" s="64">
         <v>45261</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O22" s="77" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="31" t="s">
         <v>903</v>
@@ -11573,11 +12183,14 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="51">
+      <c r="N23" s="59">
         <v>45292</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O23" s="74" t="s">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="31" t="s">
         <v>1133</v>
@@ -11611,11 +12224,14 @@
         <v>1724</v>
       </c>
       <c r="M24" s="6"/>
-      <c r="N24" s="52">
+      <c r="N24" s="60">
         <v>44937</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O24" s="76" t="s">
+        <v>3436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>2749</v>
       </c>
@@ -11643,9 +12259,10 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-    </row>
-    <row r="26" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N25" s="63"/>
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>2749</v>
       </c>
@@ -11671,9 +12288,10 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-    </row>
-    <row r="27" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N26" s="63"/>
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>2749</v>
       </c>
@@ -11705,9 +12323,10 @@
         <v>1969</v>
       </c>
       <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-    </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N27" s="63"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>2749</v>
       </c>
@@ -11733,9 +12352,10 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-    </row>
-    <row r="29" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N28" s="63"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="31" t="s">
         <v>1605</v>
@@ -11763,9 +12383,10 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-    </row>
-    <row r="30" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N29" s="63"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="31" t="s">
         <v>2296</v>
@@ -11798,8 +12419,9 @@
       <c r="N30" s="48">
         <v>44568</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O30" s="50"/>
+    </row>
+    <row r="31" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>2749</v>
       </c>
@@ -11831,9 +12453,10 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="51"/>
-    </row>
-    <row r="32" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N31" s="59"/>
+      <c r="O31" s="51"/>
+    </row>
+    <row r="32" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>294</v>
       </c>
@@ -11873,9 +12496,10 @@
       <c r="M32" s="7" t="s">
         <v>2390</v>
       </c>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="33" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N32" s="63"/>
+      <c r="O32" s="6"/>
+    </row>
+    <row r="33" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
       <c r="B33" s="31" t="s">
         <v>2403</v>
@@ -11907,11 +12531,12 @@
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="52">
+      <c r="N33" s="60">
         <v>45294</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O33" s="52"/>
+    </row>
+    <row r="34" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>2749</v>
       </c>
@@ -11943,9 +12568,10 @@
       <c r="M34" s="6" t="s">
         <v>2481</v>
       </c>
-      <c r="N34" s="6"/>
-    </row>
-    <row r="35" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N34" s="63"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
         <v>2749</v>
       </c>
@@ -11975,9 +12601,10 @@
       <c r="M35" s="35">
         <v>47332</v>
       </c>
-      <c r="N35" s="6"/>
-    </row>
-    <row r="36" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N35" s="63"/>
+      <c r="O35" s="6"/>
+    </row>
+    <row r="36" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
       <c r="B36" s="31" t="s">
         <v>2624</v>
@@ -12009,9 +12636,12 @@
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="35"/>
-      <c r="N36" s="6"/>
-    </row>
-    <row r="37" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N36" s="63"/>
+      <c r="O36" s="7" t="s">
+        <v>3484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>2749</v>
       </c>
@@ -12037,9 +12667,12 @@
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="35"/>
-      <c r="N37" s="6"/>
-    </row>
-    <row r="38" spans="1:14" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="63"/>
+      <c r="O37" s="7" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
       <c r="B38" s="31" t="s">
         <v>2658</v>
@@ -12069,11 +12702,14 @@
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="35"/>
-      <c r="N38" s="35">
+      <c r="N38" s="65">
         <v>45297</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O38" s="34" t="s">
+        <v>3491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
       <c r="B39" s="31" t="s">
         <v>2665</v>
@@ -12105,11 +12741,12 @@
       <c r="M39" s="35" t="s">
         <v>2671</v>
       </c>
-      <c r="N39" s="35">
+      <c r="N39" s="65">
         <v>45297</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O39" s="35"/>
+    </row>
+    <row r="40" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="24" t="s">
         <v>2690</v>
@@ -12133,9 +12770,10 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-    </row>
-    <row r="41" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N40" s="63"/>
+      <c r="O40" s="6"/>
+    </row>
+    <row r="41" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
       <c r="B41" s="24" t="s">
         <v>2694</v>
@@ -12171,9 +12809,10 @@
       <c r="M41" s="6" t="s">
         <v>2701</v>
       </c>
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N41" s="63"/>
+      <c r="O41" s="6"/>
+    </row>
+    <row r="42" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="14"/>
       <c r="B42" s="24" t="s">
         <v>3109</v>
@@ -12197,9 +12836,10 @@
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N42" s="63"/>
+      <c r="O42" s="6"/>
+    </row>
+    <row r="43" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
       <c r="B43" s="24" t="s">
         <v>3031</v>
@@ -12225,9 +12865,10 @@
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N43" s="63"/>
+      <c r="O43" s="6"/>
+    </row>
+    <row r="44" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
       <c r="B44" s="24" t="s">
         <v>3125</v>
@@ -12263,9 +12904,10 @@
       <c r="M44" s="35">
         <v>45963</v>
       </c>
-      <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N44" s="63"/>
+      <c r="O44" s="6"/>
+    </row>
+    <row r="45" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="24" t="s">
         <v>3169</v>
@@ -12287,9 +12929,10 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N45" s="63"/>
+      <c r="O45" s="6"/>
+    </row>
+    <row r="46" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="24" t="s">
         <v>3206</v>
@@ -12325,9 +12968,10 @@
       <c r="M46" s="35">
         <v>46885</v>
       </c>
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N46" s="63"/>
+      <c r="O46" s="6"/>
+    </row>
+    <row r="47" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="24" t="s">
         <v>3261</v>
@@ -12359,9 +13003,10 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="35"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N47" s="63"/>
+      <c r="O47" s="6"/>
+    </row>
+    <row r="48" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="24" t="s">
         <v>3302</v>
@@ -12385,17 +13030,18 @@
         <v>3306</v>
       </c>
       <c r="I48" s="7" t="s">
+        <v>3307</v>
+      </c>
+      <c r="J48" s="7" t="s">
         <v>3308</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>3307</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="35"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N48" s="63"/>
+      <c r="O48" s="6"/>
+    </row>
+    <row r="49" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -12409,9 +13055,10 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="35"/>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N49" s="63"/>
+      <c r="O49" s="6"/>
+    </row>
+    <row r="50" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
@@ -12425,9 +13072,10 @@
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="35"/>
-      <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N50" s="63"/>
+      <c r="O50" s="6"/>
+    </row>
+    <row r="51" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="14"/>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
@@ -12441,9 +13089,10 @@
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N51" s="63"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="14"/>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
@@ -12457,9 +13106,10 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N52" s="63"/>
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
@@ -12473,9 +13123,10 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N53" s="63"/>
+      <c r="O53" s="6"/>
+    </row>
+    <row r="54" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>17</v>
       </c>
@@ -12515,11 +13166,14 @@
       <c r="M54" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="N54" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O54" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="14"/>
       <c r="B55" s="31" t="s">
         <v>162</v>
@@ -12553,11 +13207,14 @@
       </c>
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
-      <c r="N55" s="51" t="s">
+      <c r="N55" s="59" t="s">
         <v>3254</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O55" s="74" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
         <v>2749</v>
       </c>
@@ -12595,9 +13252,12 @@
       <c r="M56" s="30" t="s">
         <v>1589</v>
       </c>
-      <c r="N56" s="6"/>
-    </row>
-    <row r="57" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N56" s="63"/>
+      <c r="O56" s="7" t="s">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="43"/>
       <c r="B57" s="31" t="s">
         <v>188</v>
@@ -12635,11 +13295,14 @@
       <c r="M57" s="30" t="s">
         <v>1711</v>
       </c>
-      <c r="N57" s="52">
+      <c r="N57" s="60">
         <v>44937</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O57" s="76" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="31" t="s">
         <v>236</v>
@@ -12677,11 +13340,14 @@
       <c r="M58" s="30">
         <v>46239</v>
       </c>
-      <c r="N58" s="51">
+      <c r="N58" s="59">
         <v>44932</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O58" s="74" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="43"/>
       <c r="B59" s="31" t="s">
         <v>371</v>
@@ -12716,8 +13382,9 @@
       <c r="N59" s="48">
         <v>44572</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O59" s="50"/>
+    </row>
+    <row r="60" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="43"/>
       <c r="B60" s="31" t="s">
         <v>1612</v>
@@ -12751,11 +13418,12 @@
       </c>
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
-      <c r="N60" s="51">
+      <c r="N60" s="59">
         <v>44567</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O60" s="51"/>
+    </row>
+    <row r="61" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="14"/>
       <c r="B61" s="31" t="s">
         <v>236</v>
@@ -12787,11 +13455,14 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="51">
+      <c r="N61" s="59">
         <v>44572</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O61" s="74" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="14"/>
       <c r="B62" s="31" t="s">
         <v>683</v>
@@ -12826,8 +13497,9 @@
       <c r="N62" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O62" s="50"/>
+    </row>
+    <row r="63" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="14"/>
       <c r="B63" s="31" t="s">
         <v>702</v>
@@ -12868,8 +13540,11 @@
       <c r="N63" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O63" s="73" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="14"/>
       <c r="B64" s="31" t="s">
         <v>711</v>
@@ -12895,9 +13570,12 @@
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-    </row>
-    <row r="65" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N64" s="63"/>
+      <c r="O64" s="7" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="14"/>
       <c r="B65" s="31" t="s">
         <v>740</v>
@@ -12936,8 +13614,11 @@
       <c r="N65" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O65" s="73" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="14"/>
       <c r="B66" s="31" t="s">
         <v>740</v>
@@ -12970,8 +13651,11 @@
       <c r="N66" s="48">
         <v>44572</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O66" s="73" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="14" t="s">
         <v>2749</v>
       </c>
@@ -13003,9 +13687,12 @@
       </c>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-    </row>
-    <row r="68" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N67" s="63"/>
+      <c r="O67" s="7" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="14"/>
       <c r="B68" s="31" t="s">
         <v>797</v>
@@ -13033,9 +13720,12 @@
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-    </row>
-    <row r="69" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N68" s="63"/>
+      <c r="O68" s="7" t="s">
+        <v>3414</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="14"/>
       <c r="B69" s="31" t="s">
         <v>949</v>
@@ -13074,8 +13764,11 @@
       <c r="N69" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O69" s="73" t="s">
+        <v>3381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A70" s="14"/>
       <c r="B70" s="31" t="s">
         <v>1087</v>
@@ -13110,8 +13803,11 @@
       <c r="N70" s="48">
         <v>44572</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O70" s="73" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>2749</v>
       </c>
@@ -13147,9 +13843,10 @@
       <c r="M71" s="6" t="s">
         <v>1707</v>
       </c>
-      <c r="N71" s="6"/>
-    </row>
-    <row r="72" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N71" s="63"/>
+      <c r="O71" s="6"/>
+    </row>
+    <row r="72" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="31" t="s">
         <v>1104</v>
@@ -13179,9 +13876,10 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
-      <c r="N72" s="57"/>
-    </row>
-    <row r="73" spans="1:14" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N72" s="67"/>
+      <c r="O72" s="55"/>
+    </row>
+    <row r="73" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>2209</v>
       </c>
@@ -13215,11 +13913,14 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
-      <c r="N73" s="52">
+      <c r="N73" s="60">
         <v>44937</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O73" s="76" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="31" t="s">
         <v>1113</v>
@@ -13260,8 +13961,11 @@
       <c r="N74" s="48">
         <v>44572</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O74" s="73" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="31" t="s">
         <v>1123</v>
@@ -13299,11 +14003,14 @@
       <c r="M75" s="6" t="s">
         <v>1709</v>
       </c>
-      <c r="N75" s="51">
+      <c r="N75" s="59">
         <v>44932</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O75" s="74" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="31" t="s">
         <v>1189</v>
@@ -13335,11 +14042,12 @@
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
-      <c r="N76" s="51">
+      <c r="N76" s="59">
         <v>44935</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O76" s="51"/>
+    </row>
+    <row r="77" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A77" s="14"/>
       <c r="B77" s="31" t="s">
         <v>1198</v>
@@ -13369,11 +14077,12 @@
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
-      <c r="N77" s="51">
+      <c r="N77" s="59">
         <v>44935</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O77" s="51"/>
+    </row>
+    <row r="78" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="14"/>
       <c r="B78" s="31" t="s">
         <v>1479</v>
@@ -13405,11 +14114,12 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
-      <c r="N78" s="51">
+      <c r="N78" s="59">
         <v>45292</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O78" s="51"/>
+    </row>
+    <row r="79" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A79" s="14"/>
       <c r="B79" s="31" t="s">
         <v>1530</v>
@@ -13439,9 +14149,12 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-    </row>
-    <row r="80" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N79" s="63"/>
+      <c r="O79" s="7" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A80" s="14"/>
       <c r="B80" s="31" t="s">
         <v>1535</v>
@@ -13473,11 +14186,12 @@
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
-      <c r="N80" s="51">
+      <c r="N80" s="59">
         <v>45293</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O80" s="51"/>
+    </row>
+    <row r="81" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>810</v>
       </c>
@@ -13516,8 +14230,11 @@
       <c r="N81" s="48">
         <v>44572</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O81" s="73" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>2749</v>
       </c>
@@ -13549,9 +14266,10 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-    </row>
-    <row r="83" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N82" s="63"/>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="83" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>2749</v>
       </c>
@@ -13583,9 +14301,10 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-    </row>
-    <row r="84" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N83" s="63"/>
+      <c r="O83" s="6"/>
+    </row>
+    <row r="84" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="31" t="s">
         <v>2268</v>
@@ -13619,9 +14338,10 @@
       </c>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-    </row>
-    <row r="85" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N84" s="63"/>
+      <c r="O84" s="6"/>
+    </row>
+    <row r="85" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="31" t="s">
         <v>2410</v>
@@ -13653,9 +14373,10 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-    </row>
-    <row r="86" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N85" s="63"/>
+      <c r="O85" s="6"/>
+    </row>
+    <row r="86" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="31" t="s">
         <v>2465</v>
@@ -13683,11 +14404,14 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
-      <c r="N86" s="35">
+      <c r="N86" s="65">
         <v>45298</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O86" s="34" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="14"/>
       <c r="B87" s="31" t="s">
         <v>2581</v>
@@ -13715,9 +14439,12 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-    </row>
-    <row r="88" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N87" s="63"/>
+      <c r="O87" s="7" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>2749</v>
       </c>
@@ -13755,9 +14482,10 @@
       <c r="M88" s="6" t="s">
         <v>2580</v>
       </c>
-      <c r="N88" s="6"/>
-    </row>
-    <row r="89" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N88" s="63"/>
+      <c r="O88" s="6"/>
+    </row>
+    <row r="89" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
         <v>2749</v>
       </c>
@@ -13791,9 +14519,10 @@
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-    </row>
-    <row r="90" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N89" s="63"/>
+      <c r="O89" s="6"/>
+    </row>
+    <row r="90" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="14"/>
       <c r="B90" s="31" t="s">
         <v>2804</v>
@@ -13823,9 +14552,10 @@
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-    </row>
-    <row r="91" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N90" s="63"/>
+      <c r="O90" s="6"/>
+    </row>
+    <row r="91" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A91" s="14"/>
       <c r="B91" s="31" t="s">
         <v>2907</v>
@@ -13857,9 +14587,10 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-    </row>
-    <row r="92" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N91" s="63"/>
+      <c r="O91" s="6"/>
+    </row>
+    <row r="92" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A92" s="14"/>
       <c r="B92" s="31" t="s">
         <v>3113</v>
@@ -13889,9 +14620,10 @@
       <c r="M92" s="35">
         <v>47398</v>
       </c>
-      <c r="N92" s="6"/>
-    </row>
-    <row r="93" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N92" s="63"/>
+      <c r="O92" s="6"/>
+    </row>
+    <row r="93" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A93" s="14"/>
       <c r="B93" s="31" t="s">
         <v>3146</v>
@@ -13915,9 +14647,10 @@
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="35"/>
-      <c r="N93" s="6"/>
-    </row>
-    <row r="94" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N93" s="63"/>
+      <c r="O93" s="6"/>
+    </row>
+    <row r="94" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A94" s="14"/>
       <c r="B94" s="31" t="s">
         <v>3165</v>
@@ -13943,9 +14676,10 @@
       <c r="M94" s="35" t="s">
         <v>1709</v>
       </c>
-      <c r="N94" s="6"/>
-    </row>
-    <row r="95" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N94" s="63"/>
+      <c r="O94" s="6"/>
+    </row>
+    <row r="95" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="14"/>
       <c r="B95" s="24" t="s">
         <v>3300</v>
@@ -13973,9 +14707,10 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="35"/>
-      <c r="N95" s="6"/>
-    </row>
-    <row r="96" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N95" s="63"/>
+      <c r="O95" s="6"/>
+    </row>
+    <row r="96" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="14"/>
       <c r="B96" s="31"/>
       <c r="C96" s="31"/>
@@ -13989,9 +14724,10 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="35"/>
-      <c r="N96" s="6"/>
-    </row>
-    <row r="97" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N96" s="63"/>
+      <c r="O96" s="6"/>
+    </row>
+    <row r="97" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A97" s="14"/>
       <c r="B97" s="31"/>
       <c r="C97" s="31"/>
@@ -14005,9 +14741,10 @@
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-    </row>
-    <row r="98" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N97" s="63"/>
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A98" s="14"/>
       <c r="B98" s="31"/>
       <c r="C98" s="31"/>
@@ -14021,9 +14758,10 @@
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-    </row>
-    <row r="99" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N98" s="63"/>
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="14"/>
       <c r="B99" s="24"/>
       <c r="C99" s="24"/>
@@ -14037,9 +14775,10 @@
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-    </row>
-    <row r="100" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N99" s="63"/>
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
         <v>18</v>
       </c>
@@ -14079,11 +14818,14 @@
       <c r="M100" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N100" s="3" t="s">
+      <c r="N100" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O100" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A101" s="14"/>
       <c r="B101" s="31" t="s">
         <v>83</v>
@@ -14113,11 +14855,12 @@
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
-      <c r="N101" s="51">
+      <c r="N101" s="59">
         <v>44932</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O101" s="51"/>
+    </row>
+    <row r="102" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A102" s="14"/>
       <c r="B102" s="31" t="s">
         <v>91</v>
@@ -14149,11 +14892,14 @@
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
-      <c r="N102" s="54">
+      <c r="N102" s="64">
         <v>44935</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O102" s="77" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="43" t="s">
         <v>2749</v>
       </c>
@@ -14183,9 +14929,10 @@
       </c>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
-      <c r="N103" s="41"/>
-    </row>
-    <row r="104" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N103" s="68"/>
+      <c r="O103" s="41"/>
+    </row>
+    <row r="104" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="14"/>
       <c r="B104" s="31" t="s">
         <v>205</v>
@@ -14219,11 +14966,12 @@
       </c>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
-      <c r="N104" s="51">
+      <c r="N104" s="59">
         <v>44932</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O104" s="51"/>
+    </row>
+    <row r="105" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="14"/>
       <c r="B105" s="31" t="s">
         <v>230</v>
@@ -14261,11 +15009,14 @@
       <c r="M105" s="6" t="s">
         <v>1711</v>
       </c>
-      <c r="N105" s="51" t="s">
+      <c r="N105" s="59" t="s">
         <v>3252</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O105" s="74" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
       <c r="B106" s="31" t="s">
         <v>1560</v>
@@ -14299,9 +15050,12 @@
       <c r="M106" s="30">
         <v>45303</v>
       </c>
-      <c r="N106" s="6"/>
-    </row>
-    <row r="107" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N106" s="63"/>
+      <c r="O106" s="7" t="s">
+        <v>3418</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>2749</v>
       </c>
@@ -14335,9 +15089,10 @@
       <c r="K107" s="6"/>
       <c r="L107" s="29"/>
       <c r="M107" s="30"/>
-      <c r="N107" s="6"/>
-    </row>
-    <row r="108" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N107" s="63"/>
+      <c r="O107" s="6"/>
+    </row>
+    <row r="108" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="14"/>
       <c r="B108" s="31" t="s">
         <v>438</v>
@@ -14369,11 +15124,14 @@
       <c r="K108" s="6"/>
       <c r="L108" s="29"/>
       <c r="M108" s="30"/>
-      <c r="N108" s="51">
+      <c r="N108" s="59">
         <v>44938</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O108" s="74" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A109" s="43" t="s">
         <v>2749</v>
       </c>
@@ -14411,9 +15169,12 @@
       <c r="M109" s="30">
         <v>46881</v>
       </c>
-      <c r="N109" s="6"/>
-    </row>
-    <row r="110" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N109" s="63"/>
+      <c r="O109" s="7" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
       <c r="B110" s="31" t="s">
         <v>475</v>
@@ -14451,11 +15212,12 @@
       <c r="M110" s="30">
         <v>45451</v>
       </c>
-      <c r="N110" s="51">
+      <c r="N110" s="59">
         <v>45292</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O110" s="51"/>
+    </row>
+    <row r="111" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A111" s="14"/>
       <c r="B111" s="31" t="s">
         <v>486</v>
@@ -14492,8 +15254,9 @@
       <c r="N111" s="49">
         <v>44835</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O111" s="54"/>
+    </row>
+    <row r="112" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="14"/>
       <c r="B112" s="31" t="s">
         <v>523</v>
@@ -14532,8 +15295,11 @@
       <c r="N112" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O112" s="73" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A113" s="14"/>
       <c r="B113" s="31" t="s">
         <v>532</v>
@@ -14572,8 +15338,11 @@
       <c r="N113" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O113" s="73" t="s">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A114" s="14"/>
       <c r="B114" s="31" t="s">
         <v>540</v>
@@ -14609,11 +15378,12 @@
       <c r="M114" s="30" t="s">
         <v>1600</v>
       </c>
-      <c r="N114" s="51" t="s">
+      <c r="N114" s="59" t="s">
         <v>3253</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O114" s="51"/>
+    </row>
+    <row r="115" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A115" s="14"/>
       <c r="B115" s="31" t="s">
         <v>549</v>
@@ -14654,8 +15424,11 @@
       <c r="N115" s="49">
         <v>44805</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O115" s="75" t="s">
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A116" s="14"/>
       <c r="B116" s="31" t="s">
         <v>717</v>
@@ -14687,11 +15460,12 @@
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
-      <c r="N116" s="51">
+      <c r="N116" s="59">
         <v>44931</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O116" s="51"/>
+    </row>
+    <row r="117" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="14"/>
       <c r="B117" s="31" t="s">
         <v>477</v>
@@ -14730,8 +15504,11 @@
       <c r="N117" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O117" s="73" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A118" s="14"/>
       <c r="B118" s="31" t="s">
         <v>540</v>
@@ -14763,9 +15540,10 @@
       </c>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-    </row>
-    <row r="119" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N118" s="63"/>
+      <c r="O118" s="6"/>
+    </row>
+    <row r="119" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A119" s="14"/>
       <c r="B119" s="31" t="s">
         <v>878</v>
@@ -14799,11 +15577,14 @@
       <c r="M119" s="30" t="s">
         <v>1694</v>
       </c>
-      <c r="N119" s="51">
+      <c r="N119" s="59">
         <v>44932</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O119" s="74" t="s">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A120" s="14"/>
       <c r="B120" s="31" t="s">
         <v>955</v>
@@ -14841,9 +15622,10 @@
       <c r="M120" s="30">
         <v>44835</v>
       </c>
-      <c r="N120" s="6"/>
-    </row>
-    <row r="121" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N120" s="63"/>
+      <c r="O120" s="6"/>
+    </row>
+    <row r="121" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A121" s="43"/>
       <c r="B121" s="31" t="s">
         <v>1078</v>
@@ -14879,9 +15661,12 @@
       <c r="M121" s="30">
         <v>46299</v>
       </c>
-      <c r="N121" s="6"/>
-    </row>
-    <row r="122" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N121" s="63"/>
+      <c r="O121" s="7" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A122" s="43"/>
       <c r="B122" s="31" t="s">
         <v>878</v>
@@ -14916,8 +15701,9 @@
       <c r="N122" s="48">
         <v>44572</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O122" s="50"/>
+    </row>
+    <row r="123" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A123" s="43"/>
       <c r="B123" s="31" t="s">
         <v>1173</v>
@@ -14953,11 +15739,14 @@
       <c r="M123" s="6" t="s">
         <v>1696</v>
       </c>
-      <c r="N123" s="51">
+      <c r="N123" s="59">
         <v>44931</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O123" s="74" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A124" s="43"/>
       <c r="B124" s="31" t="s">
         <v>1180</v>
@@ -14998,8 +15787,11 @@
       <c r="N124" s="49">
         <v>44866</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O124" s="75" t="s">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A125" s="14"/>
       <c r="B125" s="31" t="s">
         <v>1362</v>
@@ -15033,9 +15825,10 @@
       <c r="M125" s="6" t="s">
         <v>1814</v>
       </c>
-      <c r="N125" s="6"/>
-    </row>
-    <row r="126" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N125" s="63"/>
+      <c r="O125" s="6"/>
+    </row>
+    <row r="126" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A126" s="14"/>
       <c r="B126" s="31" t="s">
         <v>1497</v>
@@ -15067,11 +15860,14 @@
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
-      <c r="N126" s="51" t="s">
+      <c r="N126" s="59" t="s">
         <v>3250</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O126" s="74" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A127" s="43" t="s">
         <v>2749</v>
       </c>
@@ -15097,9 +15893,10 @@
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
-    </row>
-    <row r="128" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N127" s="63"/>
+      <c r="O127" s="6"/>
+    </row>
+    <row r="128" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="43" t="s">
         <v>2749</v>
       </c>
@@ -15135,9 +15932,10 @@
       <c r="M128" s="33" t="s">
         <v>2260</v>
       </c>
-      <c r="N128" s="6"/>
-    </row>
-    <row r="129" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N128" s="63"/>
+      <c r="O128" s="6"/>
+    </row>
+    <row r="129" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A129" s="14"/>
       <c r="B129" s="31" t="s">
         <v>2334</v>
@@ -15165,9 +15963,10 @@
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-    </row>
-    <row r="130" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N129" s="63"/>
+      <c r="O129" s="6"/>
+    </row>
+    <row r="130" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A130" s="43" t="s">
         <v>2749</v>
       </c>
@@ -15193,9 +15992,10 @@
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
-      <c r="N130" s="6"/>
-    </row>
-    <row r="131" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N130" s="63"/>
+      <c r="O130" s="6"/>
+    </row>
+    <row r="131" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A131" s="43" t="s">
         <v>2749</v>
       </c>
@@ -15221,9 +16021,10 @@
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
-      <c r="N131" s="6"/>
-    </row>
-    <row r="132" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N131" s="63"/>
+      <c r="O131" s="6"/>
+    </row>
+    <row r="132" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A132" s="14"/>
       <c r="B132" s="31" t="s">
         <v>2948</v>
@@ -15255,9 +16056,10 @@
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
-      <c r="N132" s="6"/>
-    </row>
-    <row r="133" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N132" s="63"/>
+      <c r="O132" s="6"/>
+    </row>
+    <row r="133" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A133" s="14"/>
       <c r="B133" s="31" t="s">
         <v>2652</v>
@@ -15283,9 +16085,10 @@
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
-    </row>
-    <row r="134" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N133" s="63"/>
+      <c r="O133" s="6"/>
+    </row>
+    <row r="134" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A134" s="14"/>
       <c r="B134" s="31" t="s">
         <v>2710</v>
@@ -15315,9 +16118,10 @@
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
-    </row>
-    <row r="135" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N134" s="63"/>
+      <c r="O134" s="6"/>
+    </row>
+    <row r="135" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A135" s="14"/>
       <c r="B135" s="31" t="s">
         <v>2981</v>
@@ -15349,9 +16153,10 @@
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
-    </row>
-    <row r="136" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N135" s="63"/>
+      <c r="O135" s="6"/>
+    </row>
+    <row r="136" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
         <v>2749</v>
       </c>
@@ -15381,9 +16186,10 @@
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
       <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
-    </row>
-    <row r="137" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N136" s="63"/>
+      <c r="O136" s="6"/>
+    </row>
+    <row r="137" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
         <v>2749</v>
       </c>
@@ -15417,9 +16223,10 @@
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
-    </row>
-    <row r="138" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N137" s="63"/>
+      <c r="O137" s="6"/>
+    </row>
+    <row r="138" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A138" s="14"/>
       <c r="B138" s="31" t="s">
         <v>3066</v>
@@ -15455,9 +16262,10 @@
       <c r="M138" s="6" t="s">
         <v>3078</v>
       </c>
-      <c r="N138" s="6"/>
-    </row>
-    <row r="139" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N138" s="63"/>
+      <c r="O138" s="6"/>
+    </row>
+    <row r="139" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="14"/>
       <c r="B139" s="31" t="s">
         <v>3066</v>
@@ -15493,9 +16301,10 @@
       <c r="M139" s="6" t="s">
         <v>3078</v>
       </c>
-      <c r="N139" s="6"/>
-    </row>
-    <row r="140" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N139" s="63"/>
+      <c r="O139" s="6"/>
+    </row>
+    <row r="140" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="14"/>
       <c r="B140" s="31"/>
       <c r="C140" s="31"/>
@@ -15509,9 +16318,10 @@
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
-    </row>
-    <row r="141" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N140" s="63"/>
+      <c r="O140" s="6"/>
+    </row>
+    <row r="141" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A141" s="14"/>
       <c r="B141" s="31"/>
       <c r="C141" s="31"/>
@@ -15525,9 +16335,10 @@
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
-    </row>
-    <row r="142" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N141" s="63"/>
+      <c r="O141" s="6"/>
+    </row>
+    <row r="142" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A142" s="14"/>
       <c r="B142" s="24"/>
       <c r="C142" s="24"/>
@@ -15541,9 +16352,10 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
-      <c r="N142" s="6"/>
-    </row>
-    <row r="143" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N142" s="63"/>
+      <c r="O142" s="6"/>
+    </row>
+    <row r="143" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A143" s="14"/>
       <c r="B143" s="24"/>
       <c r="C143" s="24"/>
@@ -15557,9 +16369,10 @@
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
-      <c r="N143" s="6"/>
-    </row>
-    <row r="144" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N143" s="63"/>
+      <c r="O143" s="6"/>
+    </row>
+    <row r="144" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A144" s="15" t="s">
         <v>19</v>
       </c>
@@ -15599,11 +16412,14 @@
       <c r="M144" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N144" s="3" t="s">
+      <c r="N144" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O144" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A145" s="14"/>
       <c r="B145" s="31" t="s">
         <v>99</v>
@@ -15636,8 +16452,11 @@
       <c r="N145" s="49">
         <v>44805</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O145" s="75" t="s">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>2749</v>
       </c>
@@ -15669,9 +16488,12 @@
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
-    </row>
-    <row r="147" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N146" s="63"/>
+      <c r="O146" s="7" t="s">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A147" s="14"/>
       <c r="B147" s="31" t="s">
         <v>445</v>
@@ -15710,8 +16532,9 @@
       <c r="N147" s="49">
         <v>44866</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O147" s="54"/>
+    </row>
+    <row r="148" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
         <v>2749</v>
       </c>
@@ -15751,9 +16574,10 @@
       <c r="M148" s="34">
         <v>45903</v>
       </c>
-      <c r="N148" s="6"/>
-    </row>
-    <row r="149" spans="1:14" s="2" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="N148" s="63"/>
+      <c r="O148" s="6"/>
+    </row>
+    <row r="149" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A149" s="14"/>
       <c r="B149" s="31" t="s">
         <v>492</v>
@@ -15785,9 +16609,12 @@
       <c r="M149" s="35">
         <v>45452</v>
       </c>
-      <c r="N149" s="6"/>
-    </row>
-    <row r="150" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N149" s="63"/>
+      <c r="O149" s="7" t="s">
+        <v>3387</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="14"/>
       <c r="B150" s="31" t="s">
         <v>492</v>
@@ -15824,8 +16651,11 @@
       <c r="N150" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O150" s="73" t="s">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
         <v>2749</v>
       </c>
@@ -15857,9 +16687,10 @@
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
       <c r="M151" s="6"/>
-      <c r="N151" s="6"/>
-    </row>
-    <row r="152" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N151" s="63"/>
+      <c r="O151" s="6"/>
+    </row>
+    <row r="152" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A152" s="14"/>
       <c r="B152" s="31" t="s">
         <v>510</v>
@@ -15897,11 +16728,14 @@
       <c r="M152" s="32" t="s">
         <v>1685</v>
       </c>
-      <c r="N152" s="51">
+      <c r="N152" s="59">
         <v>44567</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" s="2" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O152" s="74" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" s="2" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="14"/>
       <c r="B153" s="31" t="s">
         <v>492</v>
@@ -15929,9 +16763,10 @@
       <c r="M153" s="35">
         <v>45452</v>
       </c>
-      <c r="N153" s="6"/>
-    </row>
-    <row r="154" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N153" s="63"/>
+      <c r="O153" s="6"/>
+    </row>
+    <row r="154" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A154" s="14"/>
       <c r="B154" s="31" t="s">
         <v>754</v>
@@ -15970,8 +16805,11 @@
       <c r="N154" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O154" s="73" t="s">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A155" s="14"/>
       <c r="B155" s="31" t="s">
         <v>1071</v>
@@ -16010,8 +16848,11 @@
       <c r="N155" s="48">
         <v>44568</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O155" s="73" t="s">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="43" t="s">
         <v>2749</v>
       </c>
@@ -16037,9 +16878,10 @@
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
-    </row>
-    <row r="157" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N156" s="63"/>
+      <c r="O156" s="6"/>
+    </row>
+    <row r="157" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A157" s="14"/>
       <c r="B157" s="31" t="s">
         <v>2365</v>
@@ -16077,11 +16919,14 @@
       <c r="M157" s="35">
         <v>46882</v>
       </c>
-      <c r="N157" s="51" t="s">
+      <c r="N157" s="59" t="s">
         <v>3260</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O157" s="74" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A158" s="14"/>
       <c r="B158" s="24" t="s">
         <v>1911</v>
@@ -16109,9 +16954,10 @@
       <c r="M158" s="33" t="s">
         <v>1917</v>
       </c>
-      <c r="N158" s="6"/>
-    </row>
-    <row r="159" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N158" s="63"/>
+      <c r="O158" s="6"/>
+    </row>
+    <row r="159" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A159" s="14"/>
       <c r="B159" s="24" t="s">
         <v>2087</v>
@@ -16139,11 +16985,12 @@
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
       <c r="M159" s="1"/>
-      <c r="N159" s="51">
+      <c r="N159" s="59">
         <v>45294</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O159" s="51"/>
+    </row>
+    <row r="160" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A160" s="43" t="s">
         <v>2749</v>
       </c>
@@ -16173,9 +17020,10 @@
       <c r="M160" s="7" t="s">
         <v>2097</v>
       </c>
-      <c r="N160" s="6"/>
-    </row>
-    <row r="161" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N160" s="63"/>
+      <c r="O160" s="6"/>
+    </row>
+    <row r="161" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
         <v>2749</v>
       </c>
@@ -16211,9 +17059,10 @@
       <c r="M161" s="6" t="s">
         <v>2406</v>
       </c>
-      <c r="N161" s="6"/>
-    </row>
-    <row r="162" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N161" s="63"/>
+      <c r="O161" s="6"/>
+    </row>
+    <row r="162" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
         <v>2749</v>
       </c>
@@ -16245,9 +17094,10 @@
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
-      <c r="N162" s="6"/>
-    </row>
-    <row r="163" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N162" s="63"/>
+      <c r="O162" s="6"/>
+    </row>
+    <row r="163" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A163" s="43" t="s">
         <v>2749</v>
       </c>
@@ -16273,9 +17123,10 @@
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
       <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
-    </row>
-    <row r="164" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N163" s="63"/>
+      <c r="O163" s="6"/>
+    </row>
+    <row r="164" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A164" s="14"/>
       <c r="B164" s="24" t="s">
         <v>2558</v>
@@ -16305,9 +17156,10 @@
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
       <c r="M164" s="6"/>
-      <c r="N164" s="6"/>
-    </row>
-    <row r="165" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N164" s="63"/>
+      <c r="O164" s="6"/>
+    </row>
+    <row r="165" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A165" s="14"/>
       <c r="B165" s="24" t="s">
         <v>2718</v>
@@ -16343,9 +17195,12 @@
       <c r="M165" s="6" t="s">
         <v>2728</v>
       </c>
-      <c r="N165" s="6"/>
-    </row>
-    <row r="166" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N165" s="63"/>
+      <c r="O165" s="7" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A166" s="14"/>
       <c r="B166" s="24" t="s">
         <v>99</v>
@@ -16381,9 +17236,10 @@
       <c r="M166" s="6" t="s">
         <v>2930</v>
       </c>
-      <c r="N166" s="6"/>
-    </row>
-    <row r="167" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N166" s="63"/>
+      <c r="O166" s="6"/>
+    </row>
+    <row r="167" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A167" s="14"/>
       <c r="B167" s="24"/>
       <c r="C167" s="24"/>
@@ -16397,9 +17253,10 @@
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
-      <c r="N167" s="6"/>
-    </row>
-    <row r="168" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N167" s="63"/>
+      <c r="O167" s="6"/>
+    </row>
+    <row r="168" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A168" s="14"/>
       <c r="B168" s="24"/>
       <c r="C168" s="24"/>
@@ -16413,9 +17270,10 @@
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
-      <c r="N168" s="6"/>
-    </row>
-    <row r="169" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N168" s="63"/>
+      <c r="O168" s="6"/>
+    </row>
+    <row r="169" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="s">
         <v>20</v>
       </c>
@@ -16455,11 +17313,14 @@
       <c r="M169" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N169" s="3" t="s">
+      <c r="N169" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O169" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A170" s="14"/>
       <c r="B170" s="31" t="s">
         <v>257</v>
@@ -16489,9 +17350,10 @@
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
-      <c r="N170" s="6"/>
-    </row>
-    <row r="171" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N170" s="63"/>
+      <c r="O170" s="6"/>
+    </row>
+    <row r="171" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A171" s="14"/>
       <c r="B171" s="31" t="s">
         <v>311</v>
@@ -16529,11 +17391,14 @@
       <c r="M171" s="30">
         <v>46239</v>
       </c>
-      <c r="N171" s="51">
+      <c r="N171" s="59">
         <v>44933</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O171" s="74" t="s">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A172" s="14"/>
       <c r="B172" s="31" t="s">
         <v>315</v>
@@ -16566,8 +17431,11 @@
       <c r="N172" s="48">
         <v>44572</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O172" s="73" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A173" s="14"/>
       <c r="B173" s="31" t="s">
         <v>322</v>
@@ -16599,11 +17467,14 @@
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
       <c r="M173" s="6"/>
-      <c r="N173" s="51">
+      <c r="N173" s="59">
         <v>44567</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O173" s="74" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A174" s="14"/>
       <c r="B174" s="31" t="s">
         <v>330</v>
@@ -16639,11 +17510,14 @@
       <c r="M174" s="6" t="s">
         <v>1714</v>
       </c>
-      <c r="N174" s="51">
+      <c r="N174" s="59">
         <v>44932</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O174" s="74" t="s">
+        <v>3406</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A175" s="14" t="s">
         <v>2749</v>
       </c>
@@ -16681,9 +17555,12 @@
       <c r="M175" s="35">
         <v>47453</v>
       </c>
-      <c r="N175" s="6"/>
-    </row>
-    <row r="176" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N175" s="63"/>
+      <c r="O175" s="7" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A176" s="14"/>
       <c r="B176" s="31" t="s">
         <v>347</v>
@@ -16709,9 +17586,12 @@
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
       <c r="M176" s="6"/>
-      <c r="N176" s="6"/>
-    </row>
-    <row r="177" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N176" s="63"/>
+      <c r="O176" s="7" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A177" s="14"/>
       <c r="B177" s="31" t="s">
         <v>384</v>
@@ -16748,8 +17628,9 @@
       <c r="N177" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O177" s="50"/>
+    </row>
+    <row r="178" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A178" s="14" t="s">
         <v>2749</v>
       </c>
@@ -16785,9 +17666,12 @@
       <c r="M178" s="33" t="s">
         <v>1713</v>
       </c>
-      <c r="N178" s="6"/>
-    </row>
-    <row r="179" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N178" s="63"/>
+      <c r="O178" s="7" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A179" s="14"/>
       <c r="B179" s="31" t="s">
         <v>399</v>
@@ -16826,8 +17710,9 @@
       <c r="N179" s="49">
         <v>44835</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O179" s="54"/>
+    </row>
+    <row r="180" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A180" s="14"/>
       <c r="B180" s="31" t="s">
         <v>2595</v>
@@ -16859,11 +17744,14 @@
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
       <c r="M180" s="6"/>
-      <c r="N180" s="51" t="s">
+      <c r="N180" s="59" t="s">
         <v>3254</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O180" s="74" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A181" s="14"/>
       <c r="B181" s="31" t="s">
         <v>760</v>
@@ -16902,8 +17790,11 @@
       <c r="N181" s="49">
         <v>44774</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O181" s="75" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A182" s="14"/>
       <c r="B182" s="31" t="s">
         <v>1442</v>
@@ -16933,9 +17824,10 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
       <c r="M182" s="6"/>
-      <c r="N182" s="6"/>
-    </row>
-    <row r="183" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N182" s="63"/>
+      <c r="O182" s="6"/>
+    </row>
+    <row r="183" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A183" s="14"/>
       <c r="B183" s="31" t="s">
         <v>1512</v>
@@ -16967,9 +17859,10 @@
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
-      <c r="N183" s="6"/>
-    </row>
-    <row r="184" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N183" s="63"/>
+      <c r="O183" s="6"/>
+    </row>
+    <row r="184" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A184" s="14"/>
       <c r="B184" s="31" t="s">
         <v>1552</v>
@@ -17001,11 +17894,12 @@
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
-      <c r="N184" s="51" t="s">
+      <c r="N184" s="59" t="s">
         <v>3254</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O184" s="51"/>
+    </row>
+    <row r="185" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="14"/>
       <c r="B185" s="31" t="s">
         <v>1620</v>
@@ -17035,11 +17929,12 @@
       <c r="M185" s="6" t="s">
         <v>1830</v>
       </c>
-      <c r="N185" s="51" t="s">
+      <c r="N185" s="59" t="s">
         <v>3249</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O185" s="51"/>
+    </row>
+    <row r="186" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A186" s="14"/>
       <c r="B186" s="31" t="s">
         <v>1620</v>
@@ -17071,9 +17966,12 @@
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
-      <c r="N186" s="6"/>
-    </row>
-    <row r="187" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N186" s="63"/>
+      <c r="O186" s="7" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A187" s="14"/>
       <c r="B187" s="24" t="s">
         <v>2110</v>
@@ -17103,9 +18001,12 @@
       <c r="M187" s="6" t="s">
         <v>2117</v>
       </c>
-      <c r="N187" s="6"/>
-    </row>
-    <row r="188" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N187" s="63"/>
+      <c r="O187" s="7" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="14" t="s">
         <v>2749</v>
       </c>
@@ -17133,9 +18034,12 @@
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
       <c r="M188" s="6"/>
-      <c r="N188" s="6"/>
-    </row>
-    <row r="189" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N188" s="63"/>
+      <c r="O188" s="7" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="14"/>
       <c r="B189" s="24" t="s">
         <v>2251</v>
@@ -17165,9 +18069,10 @@
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
       <c r="M189" s="6"/>
-      <c r="N189" s="6"/>
-    </row>
-    <row r="190" spans="1:14" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N189" s="63"/>
+      <c r="O189" s="6"/>
+    </row>
+    <row r="190" spans="1:15" s="2" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="14"/>
       <c r="B190" s="24" t="s">
         <v>1617</v>
@@ -17199,11 +18104,12 @@
       </c>
       <c r="L190" s="6"/>
       <c r="M190" s="6"/>
-      <c r="N190" s="51">
+      <c r="N190" s="59">
         <v>44567</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O190" s="51"/>
+    </row>
+    <row r="191" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A191" s="14"/>
       <c r="B191" s="24" t="s">
         <v>2513</v>
@@ -17239,9 +18145,10 @@
       <c r="M191" s="35">
         <v>45941</v>
       </c>
-      <c r="N191" s="6"/>
-    </row>
-    <row r="192" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N191" s="63"/>
+      <c r="O191" s="6"/>
+    </row>
+    <row r="192" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A192" s="14"/>
       <c r="B192" s="24" t="s">
         <v>2513</v>
@@ -17271,9 +18178,10 @@
       <c r="K192" s="7"/>
       <c r="L192" s="6"/>
       <c r="M192" s="35"/>
-      <c r="N192" s="6"/>
-    </row>
-    <row r="193" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N192" s="63"/>
+      <c r="O192" s="6"/>
+    </row>
+    <row r="193" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A193" s="14"/>
       <c r="B193" s="24" t="s">
         <v>2633</v>
@@ -17299,9 +18207,10 @@
       <c r="K193" s="7"/>
       <c r="L193" s="6"/>
       <c r="M193" s="35"/>
-      <c r="N193" s="6"/>
-    </row>
-    <row r="194" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N193" s="63"/>
+      <c r="O193" s="6"/>
+    </row>
+    <row r="194" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A194" s="14"/>
       <c r="B194" s="24" t="s">
         <v>1481</v>
@@ -17331,9 +18240,12 @@
       <c r="K194" s="7"/>
       <c r="L194" s="6"/>
       <c r="M194" s="35"/>
-      <c r="N194" s="6"/>
-    </row>
-    <row r="195" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N194" s="63"/>
+      <c r="O194" s="7" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A195" s="14"/>
       <c r="B195" s="24" t="s">
         <v>2743</v>
@@ -17363,9 +18275,10 @@
       <c r="M195" s="35" t="s">
         <v>2748</v>
       </c>
-      <c r="N195" s="6"/>
-    </row>
-    <row r="196" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N195" s="63"/>
+      <c r="O195" s="6"/>
+    </row>
+    <row r="196" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A196" s="14" t="s">
         <v>294</v>
       </c>
@@ -17401,9 +18314,10 @@
         <v>2793</v>
       </c>
       <c r="M196" s="35"/>
-      <c r="N196" s="6"/>
-    </row>
-    <row r="197" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N196" s="63"/>
+      <c r="O196" s="6"/>
+    </row>
+    <row r="197" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A197" s="14"/>
       <c r="B197" s="24" t="s">
         <v>2931</v>
@@ -17439,10 +18353,15 @@
       <c r="M197" s="35" t="s">
         <v>2940</v>
       </c>
-      <c r="N197" s="6"/>
-    </row>
-    <row r="198" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A198" s="14"/>
+      <c r="N197" s="63"/>
+      <c r="O197" s="7" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A198" s="14" t="s">
+        <v>2836</v>
+      </c>
       <c r="B198" s="24" t="s">
         <v>2944</v>
       </c>
@@ -17463,9 +18382,10 @@
       <c r="K198" s="7"/>
       <c r="L198" s="6"/>
       <c r="M198" s="35"/>
-      <c r="N198" s="6"/>
-    </row>
-    <row r="199" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N198" s="63"/>
+      <c r="O198" s="6"/>
+    </row>
+    <row r="199" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A199" s="14"/>
       <c r="B199" s="24" t="s">
         <v>2970</v>
@@ -17491,9 +18411,10 @@
       <c r="K199" s="7"/>
       <c r="L199" s="6"/>
       <c r="M199" s="35"/>
-      <c r="N199" s="6"/>
-    </row>
-    <row r="200" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N199" s="63"/>
+      <c r="O199" s="6"/>
+    </row>
+    <row r="200" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A200" s="14"/>
       <c r="B200" s="24" t="s">
         <v>2944</v>
@@ -17517,9 +18438,10 @@
       <c r="K200" s="7"/>
       <c r="L200" s="6"/>
       <c r="M200" s="35"/>
-      <c r="N200" s="6"/>
-    </row>
-    <row r="201" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N200" s="63"/>
+      <c r="O200" s="6"/>
+    </row>
+    <row r="201" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A201" s="14"/>
       <c r="B201" s="24" t="s">
         <v>3236</v>
@@ -17555,9 +18477,10 @@
       <c r="M201" s="35" t="s">
         <v>3246</v>
       </c>
-      <c r="N201" s="6"/>
-    </row>
-    <row r="202" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N201" s="63"/>
+      <c r="O201" s="6"/>
+    </row>
+    <row r="202" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A202" s="14"/>
       <c r="B202" s="24" t="s">
         <v>315</v>
@@ -17583,9 +18506,10 @@
       <c r="K202" s="7"/>
       <c r="L202" s="6"/>
       <c r="M202" s="35"/>
-      <c r="N202" s="6"/>
-    </row>
-    <row r="203" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N202" s="63"/>
+      <c r="O202" s="6"/>
+    </row>
+    <row r="203" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A203" s="14"/>
       <c r="B203" s="24" t="s">
         <v>3319</v>
@@ -17613,9 +18537,12 @@
       <c r="M203" s="35" t="s">
         <v>3325</v>
       </c>
-      <c r="N203" s="6"/>
-    </row>
-    <row r="204" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N203" s="63"/>
+      <c r="O203" s="7" t="s">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A204" s="14"/>
       <c r="B204" s="24"/>
       <c r="C204" s="24"/>
@@ -17629,9 +18556,10 @@
       <c r="K204" s="6"/>
       <c r="L204" s="6"/>
       <c r="M204" s="6"/>
-      <c r="N204" s="6"/>
-    </row>
-    <row r="205" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N204" s="63"/>
+      <c r="O204" s="6"/>
+    </row>
+    <row r="205" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A205" s="14"/>
       <c r="B205" s="24"/>
       <c r="C205" s="24"/>
@@ -17645,9 +18573,10 @@
       <c r="K205" s="6"/>
       <c r="L205" s="6"/>
       <c r="M205" s="6"/>
-      <c r="N205" s="6"/>
-    </row>
-    <row r="206" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N205" s="63"/>
+      <c r="O205" s="6"/>
+    </row>
+    <row r="206" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A206" s="15" t="s">
         <v>21</v>
       </c>
@@ -17687,11 +18616,14 @@
       <c r="M206" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N206" s="3" t="s">
+      <c r="N206" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O206" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A207" s="43" t="s">
         <v>2749</v>
       </c>
@@ -17727,9 +18659,12 @@
       </c>
       <c r="L207" s="6"/>
       <c r="M207" s="6"/>
-      <c r="N207" s="6"/>
-    </row>
-    <row r="208" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N207" s="63"/>
+      <c r="O207" s="7" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A208" s="14"/>
       <c r="B208" s="24" t="s">
         <v>2246</v>
@@ -17753,9 +18688,10 @@
       <c r="K208" s="6"/>
       <c r="L208" s="6"/>
       <c r="M208" s="6"/>
-      <c r="N208" s="6"/>
-    </row>
-    <row r="209" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N208" s="63"/>
+      <c r="O208" s="6"/>
+    </row>
+    <row r="209" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A209" s="14"/>
       <c r="B209" s="24" t="s">
         <v>2323</v>
@@ -17779,9 +18715,10 @@
       <c r="K209" s="6"/>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
-      <c r="N209" s="6"/>
-    </row>
-    <row r="210" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N209" s="63"/>
+      <c r="O209" s="6"/>
+    </row>
+    <row r="210" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A210" s="14"/>
       <c r="B210" s="24" t="s">
         <v>2874</v>
@@ -17807,9 +18744,10 @@
       <c r="K210" s="6"/>
       <c r="L210" s="6"/>
       <c r="M210" s="6"/>
-      <c r="N210" s="6"/>
-    </row>
-    <row r="211" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N210" s="63"/>
+      <c r="O210" s="6"/>
+    </row>
+    <row r="211" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A211" s="14"/>
       <c r="B211" s="24" t="s">
         <v>2975</v>
@@ -17835,9 +18773,10 @@
       <c r="K211" s="6"/>
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
-      <c r="N211" s="6"/>
-    </row>
-    <row r="212" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N211" s="63"/>
+      <c r="O211" s="6"/>
+    </row>
+    <row r="212" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A212" s="14"/>
       <c r="B212" s="24" t="s">
         <v>3134</v>
@@ -17873,9 +18812,10 @@
       <c r="M212" s="6" t="s">
         <v>3144</v>
       </c>
-      <c r="N212" s="6"/>
-    </row>
-    <row r="213" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N212" s="63"/>
+      <c r="O212" s="6"/>
+    </row>
+    <row r="213" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A213" s="14"/>
       <c r="B213" s="24" t="s">
         <v>3134</v>
@@ -17889,7 +18829,7 @@
       <c r="E213" s="6" t="s">
         <v>3284</v>
       </c>
-      <c r="F213" s="58" t="s">
+      <c r="F213" s="56" t="s">
         <v>3285</v>
       </c>
       <c r="G213" s="6"/>
@@ -17903,9 +18843,10 @@
       <c r="K213" s="6"/>
       <c r="L213" s="6"/>
       <c r="M213" s="6"/>
-      <c r="N213" s="6"/>
-    </row>
-    <row r="214" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N213" s="63"/>
+      <c r="O213" s="6"/>
+    </row>
+    <row r="214" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A214" s="14"/>
       <c r="B214" s="24" t="s">
         <v>3326</v>
@@ -17919,7 +18860,7 @@
       <c r="E214" s="6" t="s">
         <v>3329</v>
       </c>
-      <c r="F214" s="58" t="s">
+      <c r="F214" s="56" t="s">
         <v>3330</v>
       </c>
       <c r="G214" s="6"/>
@@ -17929,15 +18870,16 @@
       <c r="K214" s="6"/>
       <c r="L214" s="6"/>
       <c r="M214" s="6"/>
-      <c r="N214" s="6"/>
-    </row>
-    <row r="215" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N214" s="63"/>
+      <c r="O214" s="6"/>
+    </row>
+    <row r="215" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A215" s="14"/>
       <c r="B215" s="24"/>
       <c r="C215" s="24"/>
       <c r="D215" s="24"/>
       <c r="E215" s="6"/>
-      <c r="F215" s="58"/>
+      <c r="F215" s="56"/>
       <c r="G215" s="6"/>
       <c r="H215" s="6"/>
       <c r="I215" s="7"/>
@@ -17945,9 +18887,10 @@
       <c r="K215" s="6"/>
       <c r="L215" s="6"/>
       <c r="M215" s="6"/>
-      <c r="N215" s="6"/>
-    </row>
-    <row r="216" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N215" s="63"/>
+      <c r="O215" s="6"/>
+    </row>
+    <row r="216" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A216" s="14"/>
       <c r="B216" s="24"/>
       <c r="C216" s="24"/>
@@ -17961,9 +18904,10 @@
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
       <c r="M216" s="6"/>
-      <c r="N216" s="6"/>
-    </row>
-    <row r="217" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N216" s="63"/>
+      <c r="O216" s="6"/>
+    </row>
+    <row r="217" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A217" s="14"/>
       <c r="B217" s="24"/>
       <c r="C217" s="24"/>
@@ -17977,9 +18921,10 @@
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
       <c r="M217" s="6"/>
-      <c r="N217" s="6"/>
-    </row>
-    <row r="218" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N217" s="63"/>
+      <c r="O217" s="6"/>
+    </row>
+    <row r="218" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A218" s="15" t="s">
         <v>22</v>
       </c>
@@ -18019,11 +18964,14 @@
       <c r="M218" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N218" s="3" t="s">
+      <c r="N218" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O218" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A219" s="14"/>
       <c r="B219" s="31" t="s">
         <v>518</v>
@@ -18053,11 +19001,14 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
       <c r="M219" s="6"/>
-      <c r="N219" s="51" t="s">
+      <c r="N219" s="59" t="s">
         <v>3252</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O219" s="74" t="s">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A220" s="14"/>
       <c r="B220" s="31" t="s">
         <v>566</v>
@@ -18098,8 +19049,11 @@
       <c r="N220" s="48">
         <v>44572</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O220" s="73" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A221" s="14"/>
       <c r="B221" s="31" t="s">
         <v>576</v>
@@ -18138,8 +19092,11 @@
       <c r="N221" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O221" s="73" t="s">
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A222" s="14"/>
       <c r="B222" s="31" t="s">
         <v>638</v>
@@ -18177,11 +19134,14 @@
       <c r="M222" s="30" t="s">
         <v>1581</v>
       </c>
-      <c r="N222" s="51">
+      <c r="N222" s="59">
         <v>44932</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O222" s="74" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A223" s="14"/>
       <c r="B223" s="31" t="s">
         <v>789</v>
@@ -18217,11 +19177,14 @@
       <c r="M223" s="40">
         <v>44933</v>
       </c>
-      <c r="N223" s="51">
+      <c r="N223" s="59">
         <v>45292</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" s="2" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="O223" s="74" t="s">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" s="2" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="14"/>
       <c r="B224" s="31" t="s">
         <v>804</v>
@@ -18249,9 +19212,10 @@
       <c r="K224" s="6"/>
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
-      <c r="N224" s="6"/>
-    </row>
-    <row r="225" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N224" s="63"/>
+      <c r="O224" s="6"/>
+    </row>
+    <row r="225" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" s="14"/>
       <c r="B225" s="31" t="s">
         <v>917</v>
@@ -18285,11 +19249,12 @@
       </c>
       <c r="L225" s="6"/>
       <c r="M225" s="6"/>
-      <c r="N225" s="51" t="s">
+      <c r="N225" s="59" t="s">
         <v>3254</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O225" s="51"/>
+    </row>
+    <row r="226" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" s="14" t="s">
         <v>2749</v>
       </c>
@@ -18327,9 +19292,10 @@
       <c r="M226" s="33" t="s">
         <v>1747</v>
       </c>
-      <c r="N226" s="6"/>
-    </row>
-    <row r="227" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N226" s="63"/>
+      <c r="O226" s="6"/>
+    </row>
+    <row r="227" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" s="14"/>
       <c r="B227" s="31" t="s">
         <v>1022</v>
@@ -18363,11 +19329,12 @@
       </c>
       <c r="L227" s="6"/>
       <c r="M227" s="6"/>
-      <c r="N227" s="51">
+      <c r="N227" s="59">
         <v>44931</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O227" s="51"/>
+    </row>
+    <row r="228" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" s="14"/>
       <c r="B228" s="31" t="s">
         <v>1031</v>
@@ -18402,8 +19369,11 @@
       <c r="N228" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O228" s="73" t="s">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A229" s="14"/>
       <c r="B229" s="31" t="s">
         <v>1039</v>
@@ -18442,8 +19412,11 @@
       <c r="N229" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O229" s="73" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A230" s="14"/>
       <c r="B230" s="31" t="s">
         <v>1048</v>
@@ -18478,8 +19451,11 @@
       <c r="N230" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O230" s="73" t="s">
+        <v>3376</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A231" s="14"/>
       <c r="B231" s="31" t="s">
         <v>1056</v>
@@ -18514,8 +19490,11 @@
       <c r="N231" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O231" s="73" t="s">
+        <v>3373</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A232" s="43"/>
       <c r="B232" s="31" t="s">
         <v>1064</v>
@@ -18554,8 +19533,11 @@
       <c r="N232" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O232" s="73" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A233" s="43"/>
       <c r="B233" s="31" t="s">
         <v>1457</v>
@@ -18585,11 +19567,12 @@
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
       <c r="M233" s="6"/>
-      <c r="N233" s="35">
+      <c r="N233" s="65">
         <v>45292</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O233" s="35"/>
+    </row>
+    <row r="234" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A234" s="43" t="s">
         <v>2209</v>
       </c>
@@ -18627,11 +19610,14 @@
       <c r="M234" s="6" t="s">
         <v>1841</v>
       </c>
-      <c r="N234" s="51">
+      <c r="N234" s="59">
         <v>44938</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O234" s="74" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A235" s="43"/>
       <c r="B235" s="31" t="s">
         <v>1563</v>
@@ -18669,9 +19655,10 @@
       <c r="M235" s="6" t="s">
         <v>1722</v>
       </c>
-      <c r="N235" s="6"/>
-    </row>
-    <row r="236" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N235" s="63"/>
+      <c r="O235" s="6"/>
+    </row>
+    <row r="236" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A236" s="43"/>
       <c r="B236" s="31" t="s">
         <v>557</v>
@@ -18710,8 +19697,11 @@
       <c r="N236" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O236" s="73" t="s">
+        <v>3483</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A237" s="43"/>
       <c r="B237" s="31" t="s">
         <v>965</v>
@@ -18748,8 +19738,9 @@
       <c r="N237" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O237" s="50"/>
+    </row>
+    <row r="238" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A238" s="14" t="s">
         <v>2749</v>
       </c>
@@ -18787,9 +19778,10 @@
       <c r="M238" s="35">
         <v>45693</v>
       </c>
-      <c r="N238" s="6"/>
-    </row>
-    <row r="239" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N238" s="63"/>
+      <c r="O238" s="6"/>
+    </row>
+    <row r="239" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A239" s="14"/>
       <c r="B239" s="31" t="s">
         <v>566</v>
@@ -18815,9 +19807,10 @@
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
       <c r="M239" s="35"/>
-      <c r="N239" s="6"/>
-    </row>
-    <row r="240" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N239" s="63"/>
+      <c r="O239" s="6"/>
+    </row>
+    <row r="240" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A240" s="14"/>
       <c r="B240" s="24" t="s">
         <v>1845</v>
@@ -18843,9 +19836,12 @@
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
       <c r="M240" s="35"/>
-      <c r="N240" s="6"/>
-    </row>
-    <row r="241" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N240" s="63"/>
+      <c r="O240" s="7" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A241" s="14"/>
       <c r="B241" s="24" t="s">
         <v>1850</v>
@@ -18875,11 +19871,14 @@
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
       <c r="M241" s="35"/>
-      <c r="N241" s="51">
+      <c r="N241" s="59">
         <v>45293</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O241" s="74" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A242" s="14"/>
       <c r="B242" s="24" t="s">
         <v>1900</v>
@@ -18909,11 +19908,12 @@
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
       <c r="M242" s="35"/>
-      <c r="N242" s="51">
+      <c r="N242" s="59">
         <v>45293</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O242" s="51"/>
+    </row>
+    <row r="243" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A243" s="14"/>
       <c r="B243" s="24" t="s">
         <v>1627</v>
@@ -18943,11 +19943,12 @@
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
       <c r="M243" s="35"/>
-      <c r="N243" s="51" t="s">
+      <c r="N243" s="59" t="s">
         <v>3255</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O243" s="51"/>
+    </row>
+    <row r="244" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A244" s="14"/>
       <c r="B244" s="24" t="s">
         <v>2528</v>
@@ -18973,9 +19974,10 @@
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
       <c r="M244" s="35"/>
-      <c r="N244" s="6"/>
-    </row>
-    <row r="245" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N244" s="63"/>
+      <c r="O244" s="6"/>
+    </row>
+    <row r="245" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A245" s="14" t="s">
         <v>2749</v>
       </c>
@@ -19003,9 +20005,10 @@
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
       <c r="M245" s="35"/>
-      <c r="N245" s="6"/>
-    </row>
-    <row r="246" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N245" s="63"/>
+      <c r="O245" s="6"/>
+    </row>
+    <row r="246" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A246" s="14"/>
       <c r="B246" s="24" t="s">
         <v>1031</v>
@@ -19029,9 +20032,10 @@
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
       <c r="M246" s="35"/>
-      <c r="N246" s="6"/>
-    </row>
-    <row r="247" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N246" s="63"/>
+      <c r="O246" s="6"/>
+    </row>
+    <row r="247" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A247" s="14" t="s">
         <v>2749</v>
       </c>
@@ -19069,9 +20073,10 @@
       <c r="M247" s="35" t="s">
         <v>2784</v>
       </c>
-      <c r="N247" s="6"/>
-    </row>
-    <row r="248" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N247" s="63"/>
+      <c r="O247" s="6"/>
+    </row>
+    <row r="248" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A248" s="14"/>
       <c r="B248" s="24" t="s">
         <v>3058</v>
@@ -19101,9 +20106,10 @@
       <c r="M248" s="35" t="s">
         <v>3064</v>
       </c>
-      <c r="N248" s="6"/>
-    </row>
-    <row r="249" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N248" s="63"/>
+      <c r="O248" s="6"/>
+    </row>
+    <row r="249" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A249" s="14"/>
       <c r="B249" s="24"/>
       <c r="C249" s="24"/>
@@ -19117,9 +20123,10 @@
       <c r="K249" s="6"/>
       <c r="L249" s="6"/>
       <c r="M249" s="35"/>
-      <c r="N249" s="6"/>
-    </row>
-    <row r="250" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N249" s="63"/>
+      <c r="O249" s="6"/>
+    </row>
+    <row r="250" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A250" s="14"/>
       <c r="B250" s="24"/>
       <c r="C250" s="24"/>
@@ -19133,9 +20140,10 @@
       <c r="K250" s="6"/>
       <c r="L250" s="6"/>
       <c r="M250" s="35"/>
-      <c r="N250" s="6"/>
-    </row>
-    <row r="251" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N250" s="63"/>
+      <c r="O250" s="6"/>
+    </row>
+    <row r="251" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A251" s="14"/>
       <c r="B251" s="24"/>
       <c r="C251" s="24"/>
@@ -19149,9 +20157,10 @@
       <c r="K251" s="6"/>
       <c r="L251" s="6"/>
       <c r="M251" s="35"/>
-      <c r="N251" s="6"/>
-    </row>
-    <row r="252" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N251" s="63"/>
+      <c r="O251" s="6"/>
+    </row>
+    <row r="252" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A252" s="14"/>
       <c r="B252" s="24"/>
       <c r="C252" s="24"/>
@@ -19165,9 +20174,10 @@
       <c r="K252" s="6"/>
       <c r="L252" s="6"/>
       <c r="M252" s="6"/>
-      <c r="N252" s="6"/>
-    </row>
-    <row r="253" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N252" s="63"/>
+      <c r="O252" s="6"/>
+    </row>
+    <row r="253" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A253" s="14"/>
       <c r="B253" s="24"/>
       <c r="C253" s="24"/>
@@ -19181,9 +20191,10 @@
       <c r="K253" s="6"/>
       <c r="L253" s="6"/>
       <c r="M253" s="6"/>
-      <c r="N253" s="6"/>
-    </row>
-    <row r="254" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N253" s="63"/>
+      <c r="O253" s="6"/>
+    </row>
+    <row r="254" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A254" s="15" t="s">
         <v>23</v>
       </c>
@@ -19223,11 +20234,14 @@
       <c r="M254" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N254" s="3" t="s">
+      <c r="N254" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O254" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A255" s="43"/>
       <c r="B255" s="31" t="s">
         <v>585</v>
@@ -19255,9 +20269,10 @@
       <c r="K255" s="6"/>
       <c r="L255" s="6"/>
       <c r="M255" s="6"/>
-      <c r="N255" s="6"/>
-    </row>
-    <row r="256" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N255" s="63"/>
+      <c r="O255" s="6"/>
+    </row>
+    <row r="256" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A256" s="43"/>
       <c r="B256" s="31" t="s">
         <v>1521</v>
@@ -19291,9 +20306,10 @@
       </c>
       <c r="L256" s="6"/>
       <c r="M256" s="6"/>
-      <c r="N256" s="6"/>
-    </row>
-    <row r="257" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N256" s="63"/>
+      <c r="O256" s="6"/>
+    </row>
+    <row r="257" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A257" s="14" t="s">
         <v>2836</v>
       </c>
@@ -19319,9 +20335,10 @@
       <c r="K257" s="6"/>
       <c r="L257" s="6"/>
       <c r="M257" s="6"/>
-      <c r="N257" s="6"/>
-    </row>
-    <row r="258" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N257" s="63"/>
+      <c r="O257" s="6"/>
+    </row>
+    <row r="258" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A258" s="14"/>
       <c r="B258" s="24" t="s">
         <v>2829</v>
@@ -19349,9 +20366,10 @@
       <c r="K258" s="6"/>
       <c r="L258" s="6"/>
       <c r="M258" s="6"/>
-      <c r="N258" s="6"/>
-    </row>
-    <row r="259" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N258" s="63"/>
+      <c r="O258" s="6"/>
+    </row>
+    <row r="259" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A259" s="14"/>
       <c r="B259" s="24" t="s">
         <v>3155</v>
@@ -19373,9 +20391,10 @@
       <c r="K259" s="6"/>
       <c r="L259" s="6"/>
       <c r="M259" s="6"/>
-      <c r="N259" s="6"/>
-    </row>
-    <row r="260" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N259" s="63"/>
+      <c r="O259" s="6"/>
+    </row>
+    <row r="260" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A260" s="14"/>
       <c r="B260" s="24"/>
       <c r="C260" s="24"/>
@@ -19389,9 +20408,10 @@
       <c r="K260" s="6"/>
       <c r="L260" s="6"/>
       <c r="M260" s="6"/>
-      <c r="N260" s="6"/>
-    </row>
-    <row r="261" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N260" s="63"/>
+      <c r="O260" s="6"/>
+    </row>
+    <row r="261" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A261" s="14"/>
       <c r="B261" s="24"/>
       <c r="C261" s="24"/>
@@ -19405,9 +20425,10 @@
       <c r="K261" s="6"/>
       <c r="L261" s="6"/>
       <c r="M261" s="6"/>
-      <c r="N261" s="6"/>
-    </row>
-    <row r="262" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N261" s="63"/>
+      <c r="O261" s="6"/>
+    </row>
+    <row r="262" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A262" s="15" t="s">
         <v>24</v>
       </c>
@@ -19447,11 +20468,14 @@
       <c r="M262" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N262" s="3" t="s">
+      <c r="N262" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O262" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A263" s="14" t="s">
         <v>2749</v>
       </c>
@@ -19485,9 +20509,10 @@
       <c r="K263" s="6"/>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
-      <c r="N263" s="6"/>
-    </row>
-    <row r="264" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N263" s="63"/>
+      <c r="O263" s="6"/>
+    </row>
+    <row r="264" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A264" s="14" t="s">
         <v>2749</v>
       </c>
@@ -19521,9 +20546,10 @@
       <c r="K264" s="6"/>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
-      <c r="N264" s="6"/>
-    </row>
-    <row r="265" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N264" s="63"/>
+      <c r="O264" s="6"/>
+    </row>
+    <row r="265" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A265" s="14"/>
       <c r="B265" s="24"/>
       <c r="C265" s="24"/>
@@ -19537,9 +20563,10 @@
       <c r="K265" s="6"/>
       <c r="L265" s="6"/>
       <c r="M265" s="6"/>
-      <c r="N265" s="6"/>
-    </row>
-    <row r="266" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N265" s="63"/>
+      <c r="O265" s="6"/>
+    </row>
+    <row r="266" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A266" s="14"/>
       <c r="B266" s="24"/>
       <c r="C266" s="24"/>
@@ -19553,9 +20580,10 @@
       <c r="K266" s="6"/>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
-      <c r="N266" s="6"/>
-    </row>
-    <row r="267" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N266" s="63"/>
+      <c r="O266" s="6"/>
+    </row>
+    <row r="267" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A267" s="14"/>
       <c r="B267" s="24"/>
       <c r="C267" s="24"/>
@@ -19569,9 +20597,10 @@
       <c r="K267" s="6"/>
       <c r="L267" s="6"/>
       <c r="M267" s="6"/>
-      <c r="N267" s="6"/>
-    </row>
-    <row r="268" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N267" s="63"/>
+      <c r="O267" s="6"/>
+    </row>
+    <row r="268" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A268" s="14"/>
       <c r="B268" s="24"/>
       <c r="C268" s="24"/>
@@ -19585,9 +20614,10 @@
       <c r="K268" s="6"/>
       <c r="L268" s="6"/>
       <c r="M268" s="6"/>
-      <c r="N268" s="6"/>
-    </row>
-    <row r="269" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N268" s="63"/>
+      <c r="O268" s="6"/>
+    </row>
+    <row r="269" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A269" s="14"/>
       <c r="B269" s="24"/>
       <c r="C269" s="24"/>
@@ -19601,9 +20631,10 @@
       <c r="K269" s="6"/>
       <c r="L269" s="6"/>
       <c r="M269" s="6"/>
-      <c r="N269" s="6"/>
-    </row>
-    <row r="270" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N269" s="63"/>
+      <c r="O269" s="6"/>
+    </row>
+    <row r="270" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A270" s="14"/>
       <c r="B270" s="24"/>
       <c r="C270" s="24"/>
@@ -19617,9 +20648,10 @@
       <c r="K270" s="6"/>
       <c r="L270" s="6"/>
       <c r="M270" s="6"/>
-      <c r="N270" s="6"/>
-    </row>
-    <row r="271" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N270" s="63"/>
+      <c r="O270" s="6"/>
+    </row>
+    <row r="271" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A271" s="14"/>
       <c r="B271" s="24"/>
       <c r="C271" s="24"/>
@@ -19633,9 +20665,10 @@
       <c r="K271" s="6"/>
       <c r="L271" s="6"/>
       <c r="M271" s="6"/>
-      <c r="N271" s="6"/>
-    </row>
-    <row r="272" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N271" s="63"/>
+      <c r="O271" s="6"/>
+    </row>
+    <row r="272" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A272" s="15" t="s">
         <v>25</v>
       </c>
@@ -19675,11 +20708,14 @@
       <c r="M272" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N272" s="3" t="s">
+      <c r="N272" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O272" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="14"/>
       <c r="B273" s="24" t="s">
         <v>223</v>
@@ -19717,11 +20753,14 @@
       <c r="M273" s="30">
         <v>46239</v>
       </c>
-      <c r="N273" s="51">
+      <c r="N273" s="59">
         <v>44932</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O273" s="74" t="s">
+        <v>3404</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A274" s="14"/>
       <c r="B274" s="24" t="s">
         <v>1603</v>
@@ -19749,9 +20788,10 @@
       <c r="K274" s="6"/>
       <c r="L274" s="6"/>
       <c r="M274" s="6"/>
-      <c r="N274" s="6"/>
-    </row>
-    <row r="275" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N274" s="63"/>
+      <c r="O274" s="6"/>
+    </row>
+    <row r="275" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A275" s="14"/>
       <c r="B275" s="24"/>
       <c r="C275" s="24"/>
@@ -19765,9 +20805,10 @@
       <c r="K275" s="6"/>
       <c r="L275" s="6"/>
       <c r="M275" s="6"/>
-      <c r="N275" s="6"/>
-    </row>
-    <row r="276" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N275" s="63"/>
+      <c r="O275" s="6"/>
+    </row>
+    <row r="276" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A276" s="14"/>
       <c r="B276" s="24"/>
       <c r="C276" s="24"/>
@@ -19781,9 +20822,10 @@
       <c r="K276" s="6"/>
       <c r="L276" s="6"/>
       <c r="M276" s="6"/>
-      <c r="N276" s="6"/>
-    </row>
-    <row r="277" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N276" s="63"/>
+      <c r="O276" s="6"/>
+    </row>
+    <row r="277" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A277" s="14"/>
       <c r="B277" s="24"/>
       <c r="C277" s="24"/>
@@ -19797,9 +20839,10 @@
       <c r="K277" s="6"/>
       <c r="L277" s="6"/>
       <c r="M277" s="6"/>
-      <c r="N277" s="6"/>
-    </row>
-    <row r="278" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N277" s="63"/>
+      <c r="O277" s="6"/>
+    </row>
+    <row r="278" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A278" s="14"/>
       <c r="B278" s="24"/>
       <c r="C278" s="24"/>
@@ -19813,9 +20856,10 @@
       <c r="K278" s="6"/>
       <c r="L278" s="6"/>
       <c r="M278" s="6"/>
-      <c r="N278" s="6"/>
-    </row>
-    <row r="279" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N278" s="63"/>
+      <c r="O278" s="6"/>
+    </row>
+    <row r="279" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A279" s="14"/>
       <c r="B279" s="24"/>
       <c r="C279" s="24"/>
@@ -19829,9 +20873,10 @@
       <c r="K279" s="6"/>
       <c r="L279" s="6"/>
       <c r="M279" s="6"/>
-      <c r="N279" s="6"/>
-    </row>
-    <row r="280" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N279" s="63"/>
+      <c r="O279" s="6"/>
+    </row>
+    <row r="280" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A280" s="15" t="s">
         <v>26</v>
       </c>
@@ -19871,11 +20916,14 @@
       <c r="M280" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N280" s="3" t="s">
+      <c r="N280" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O280" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A281" s="14"/>
       <c r="B281" s="24" t="s">
         <v>3052</v>
@@ -19907,9 +20955,10 @@
       <c r="K281" s="6"/>
       <c r="L281" s="6"/>
       <c r="M281" s="6"/>
-      <c r="N281" s="6"/>
-    </row>
-    <row r="282" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N281" s="63"/>
+      <c r="O281" s="6"/>
+    </row>
+    <row r="282" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A282" s="14"/>
       <c r="B282" s="24"/>
       <c r="C282" s="24"/>
@@ -19923,9 +20972,10 @@
       <c r="K282" s="6"/>
       <c r="L282" s="6"/>
       <c r="M282" s="6"/>
-      <c r="N282" s="6"/>
-    </row>
-    <row r="283" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N282" s="63"/>
+      <c r="O282" s="6"/>
+    </row>
+    <row r="283" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A283" s="14"/>
       <c r="B283" s="24"/>
       <c r="C283" s="24"/>
@@ -19939,9 +20989,10 @@
       <c r="K283" s="6"/>
       <c r="L283" s="6"/>
       <c r="M283" s="6"/>
-      <c r="N283" s="6"/>
-    </row>
-    <row r="284" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N283" s="63"/>
+      <c r="O283" s="6"/>
+    </row>
+    <row r="284" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A284" s="14"/>
       <c r="B284" s="24"/>
       <c r="C284" s="24"/>
@@ -19955,9 +21006,10 @@
       <c r="K284" s="6"/>
       <c r="L284" s="6"/>
       <c r="M284" s="6"/>
-      <c r="N284" s="6"/>
-    </row>
-    <row r="285" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N284" s="63"/>
+      <c r="O284" s="6"/>
+    </row>
+    <row r="285" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A285" s="14"/>
       <c r="B285" s="24"/>
       <c r="C285" s="24"/>
@@ -19971,9 +21023,10 @@
       <c r="K285" s="6"/>
       <c r="L285" s="6"/>
       <c r="M285" s="6"/>
-      <c r="N285" s="6"/>
-    </row>
-    <row r="286" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N285" s="63"/>
+      <c r="O285" s="6"/>
+    </row>
+    <row r="286" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A286" s="15" t="s">
         <v>27</v>
       </c>
@@ -20013,11 +21066,14 @@
       <c r="M286" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N286" s="3" t="s">
+      <c r="N286" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O286" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A287" s="14"/>
       <c r="B287" s="31" t="s">
         <v>115</v>
@@ -20056,8 +21112,11 @@
       <c r="N287" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O287" s="73" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A288" s="14"/>
       <c r="B288" s="31" t="s">
         <v>124</v>
@@ -20093,11 +21152,14 @@
       <c r="M288" s="6" t="s">
         <v>1812</v>
       </c>
-      <c r="N288" s="51">
+      <c r="N288" s="59">
         <v>44931</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O288" s="74" t="s">
+        <v>3396</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A289" s="14"/>
       <c r="B289" s="31" t="s">
         <v>131</v>
@@ -20136,8 +21198,11 @@
       <c r="N289" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O289" s="73" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A290" s="14"/>
       <c r="B290" s="31" t="s">
         <v>1000</v>
@@ -20173,11 +21238,14 @@
       <c r="M290" s="6" t="s">
         <v>1679</v>
       </c>
-      <c r="N290" s="54">
+      <c r="N290" s="64">
         <v>44931</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O290" s="77" t="s">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A291" s="14"/>
       <c r="B291" s="31" t="s">
         <v>1007</v>
@@ -20207,9 +21275,10 @@
       <c r="K291" s="6"/>
       <c r="L291" s="6"/>
       <c r="M291" s="6"/>
-      <c r="N291" s="6"/>
-    </row>
-    <row r="292" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N291" s="63"/>
+      <c r="O291" s="6"/>
+    </row>
+    <row r="292" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A292" s="14"/>
       <c r="B292" s="31" t="s">
         <v>1015</v>
@@ -20241,11 +21310,14 @@
       <c r="K292" s="6"/>
       <c r="L292" s="6"/>
       <c r="M292" s="6"/>
-      <c r="N292" s="51" t="s">
+      <c r="N292" s="59" t="s">
         <v>3250</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O292" s="74" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A293" s="14"/>
       <c r="B293" s="31" t="s">
         <v>1204</v>
@@ -20275,11 +21347,14 @@
       <c r="K293" s="6"/>
       <c r="L293" s="6"/>
       <c r="M293" s="6"/>
-      <c r="N293" s="51">
+      <c r="N293" s="59">
         <v>44932</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O293" s="74" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A294" s="14"/>
       <c r="B294" s="31" t="s">
         <v>1395</v>
@@ -20316,8 +21391,11 @@
       <c r="N294" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O294" s="73" t="s">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A295" s="14"/>
       <c r="B295" s="31" t="s">
         <v>1416</v>
@@ -20356,8 +21434,11 @@
       <c r="N295" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O295" s="73" t="s">
+        <v>3371</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A296" s="14"/>
       <c r="B296" s="31" t="s">
         <v>1571</v>
@@ -20387,11 +21468,14 @@
       </c>
       <c r="L296" s="6"/>
       <c r="M296" s="6"/>
-      <c r="N296" s="55">
+      <c r="N296" s="69">
         <v>45292</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O296" s="78" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A297" s="14"/>
       <c r="B297" s="31" t="s">
         <v>1632</v>
@@ -20417,9 +21501,10 @@
       <c r="K297" s="6"/>
       <c r="L297" s="6"/>
       <c r="M297" s="6"/>
-      <c r="N297" s="41"/>
-    </row>
-    <row r="298" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N297" s="68"/>
+      <c r="O297" s="41"/>
+    </row>
+    <row r="298" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A298" s="14"/>
       <c r="B298" s="31" t="s">
         <v>1607</v>
@@ -20453,11 +21538,12 @@
       <c r="M298" s="33" t="s">
         <v>1935</v>
       </c>
-      <c r="N298" s="54" t="s">
+      <c r="N298" s="64" t="s">
         <v>3249</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O298" s="53"/>
+    </row>
+    <row r="299" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A299" s="14"/>
       <c r="B299" s="31" t="s">
         <v>2118</v>
@@ -20483,9 +21569,10 @@
       <c r="K299" s="6"/>
       <c r="L299" s="6"/>
       <c r="M299" s="6"/>
-      <c r="N299" s="6"/>
-    </row>
-    <row r="300" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N299" s="63"/>
+      <c r="O299" s="6"/>
+    </row>
+    <row r="300" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A300" s="14" t="s">
         <v>2749</v>
       </c>
@@ -20519,9 +21606,10 @@
       <c r="K300" s="6"/>
       <c r="L300" s="6"/>
       <c r="M300" s="6"/>
-      <c r="N300" s="6"/>
-    </row>
-    <row r="301" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N300" s="63"/>
+      <c r="O300" s="6"/>
+    </row>
+    <row r="301" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A301" s="14"/>
       <c r="B301" s="31" t="s">
         <v>2679</v>
@@ -20547,9 +21635,10 @@
       <c r="K301" s="6"/>
       <c r="L301" s="6"/>
       <c r="M301" s="6"/>
-      <c r="N301" s="6"/>
-    </row>
-    <row r="302" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N301" s="63"/>
+      <c r="O301" s="6"/>
+    </row>
+    <row r="302" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A302" s="14"/>
       <c r="B302" s="24" t="s">
         <v>2684</v>
@@ -20585,9 +21674,10 @@
       <c r="M302" s="7" t="s">
         <v>3177</v>
       </c>
-      <c r="N302" s="6"/>
-    </row>
-    <row r="303" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N302" s="63"/>
+      <c r="O302" s="6"/>
+    </row>
+    <row r="303" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A303" s="14"/>
       <c r="B303" s="24" t="s">
         <v>2914</v>
@@ -20623,9 +21713,10 @@
       <c r="M303" s="6" t="s">
         <v>2921</v>
       </c>
-      <c r="N303" s="6"/>
-    </row>
-    <row r="304" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N303" s="63"/>
+      <c r="O303" s="6"/>
+    </row>
+    <row r="304" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A304" s="14"/>
       <c r="B304" s="24" t="s">
         <v>2990</v>
@@ -20659,10 +21750,13 @@
       <c r="M304" s="6" t="s">
         <v>3000</v>
       </c>
-      <c r="N304" s="6"/>
-    </row>
-    <row r="305" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A305" s="14"/>
+      <c r="N304" s="63"/>
+      <c r="O304" s="6"/>
+    </row>
+    <row r="305" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A305" s="14" t="s">
+        <v>2836</v>
+      </c>
       <c r="B305" s="24" t="s">
         <v>3102</v>
       </c>
@@ -20693,9 +21787,10 @@
       <c r="K305" s="6"/>
       <c r="L305" s="7"/>
       <c r="M305" s="6"/>
-      <c r="N305" s="6"/>
-    </row>
-    <row r="306" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N305" s="63"/>
+      <c r="O305" s="6"/>
+    </row>
+    <row r="306" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A306" s="14"/>
       <c r="B306" s="24" t="s">
         <v>3275</v>
@@ -20725,9 +21820,10 @@
       <c r="K306" s="6"/>
       <c r="L306" s="7"/>
       <c r="M306" s="6"/>
-      <c r="N306" s="6"/>
-    </row>
-    <row r="307" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N306" s="63"/>
+      <c r="O306" s="6"/>
+    </row>
+    <row r="307" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A307" s="14"/>
       <c r="B307" s="24" t="s">
         <v>3313</v>
@@ -20753,9 +21849,10 @@
       <c r="K307" s="6"/>
       <c r="L307" s="7"/>
       <c r="M307" s="6"/>
-      <c r="N307" s="6"/>
-    </row>
-    <row r="308" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N307" s="63"/>
+      <c r="O307" s="6"/>
+    </row>
+    <row r="308" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A308" s="14"/>
       <c r="B308" s="24"/>
       <c r="C308" s="24"/>
@@ -20769,9 +21866,10 @@
       <c r="K308" s="6"/>
       <c r="L308" s="6"/>
       <c r="M308" s="6"/>
-      <c r="N308" s="6"/>
-    </row>
-    <row r="309" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N308" s="63"/>
+      <c r="O308" s="6"/>
+    </row>
+    <row r="309" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A309" s="14"/>
       <c r="B309" s="24"/>
       <c r="C309" s="24"/>
@@ -20785,9 +21883,10 @@
       <c r="K309" s="6"/>
       <c r="L309" s="6"/>
       <c r="M309" s="6"/>
-      <c r="N309" s="6"/>
-    </row>
-    <row r="310" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N309" s="63"/>
+      <c r="O309" s="6"/>
+    </row>
+    <row r="310" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A310" s="14"/>
       <c r="B310" s="24"/>
       <c r="C310" s="24"/>
@@ -20801,9 +21900,10 @@
       <c r="K310" s="6"/>
       <c r="L310" s="6"/>
       <c r="M310" s="6"/>
-      <c r="N310" s="6"/>
-    </row>
-    <row r="311" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N310" s="63"/>
+      <c r="O310" s="6"/>
+    </row>
+    <row r="311" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A311" s="15" t="s">
         <v>28</v>
       </c>
@@ -20843,11 +21943,14 @@
       <c r="M311" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N311" s="3" t="s">
+      <c r="N311" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O311" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A312" s="14"/>
       <c r="B312" s="31" t="s">
         <v>59</v>
@@ -20883,11 +21986,12 @@
       <c r="M312" s="6" t="s">
         <v>1793</v>
       </c>
-      <c r="N312" s="51">
+      <c r="N312" s="59">
         <v>44932</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O312" s="51"/>
+    </row>
+    <row r="313" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A313" s="14"/>
       <c r="B313" s="31" t="s">
         <v>66</v>
@@ -20928,8 +22032,11 @@
       <c r="N313" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O313" s="73" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A314" s="14"/>
       <c r="B314" s="31" t="s">
         <v>75</v>
@@ -20968,8 +22075,11 @@
       <c r="N314" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O314" s="73" t="s">
+        <v>3362</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A315" s="14"/>
       <c r="B315" s="31" t="s">
         <v>154</v>
@@ -21003,11 +22113,12 @@
       </c>
       <c r="L315" s="6"/>
       <c r="M315" s="6"/>
-      <c r="N315" s="51">
+      <c r="N315" s="59">
         <v>44938</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O315" s="51"/>
+    </row>
+    <row r="316" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A316" s="14"/>
       <c r="B316" s="31" t="s">
         <v>249</v>
@@ -21045,11 +22156,14 @@
       <c r="M316" s="33" t="s">
         <v>2081</v>
       </c>
-      <c r="N316" s="51" t="s">
+      <c r="N316" s="59" t="s">
         <v>3254</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O316" s="74" t="s">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A317" s="14"/>
       <c r="B317" s="31" t="s">
         <v>429</v>
@@ -21085,11 +22199,14 @@
       <c r="M317" s="35">
         <v>45871</v>
       </c>
-      <c r="N317" s="51">
+      <c r="N317" s="59">
         <v>44938</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O317" s="74" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A318" s="14"/>
       <c r="B318" s="31" t="s">
         <v>1390</v>
@@ -21130,8 +22247,11 @@
       <c r="N318" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="O318" s="73" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A319" s="14"/>
       <c r="B319" s="31" t="s">
         <v>777</v>
@@ -21165,11 +22285,12 @@
       <c r="M319" s="6" t="s">
         <v>1737</v>
       </c>
-      <c r="N319" s="51" t="s">
+      <c r="N319" s="59" t="s">
         <v>3252</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O319" s="51"/>
+    </row>
+    <row r="320" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A320" s="14"/>
       <c r="B320" s="31" t="s">
         <v>811</v>
@@ -21202,8 +22323,9 @@
       <c r="N320" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O320" s="50"/>
+    </row>
+    <row r="321" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A321" s="14" t="s">
         <v>2749</v>
       </c>
@@ -21242,8 +22364,9 @@
         <v>42897</v>
       </c>
       <c r="N321" s="48"/>
-    </row>
-    <row r="322" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O321" s="50"/>
+    </row>
+    <row r="322" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A322" s="14"/>
       <c r="B322" s="31" t="s">
         <v>821</v>
@@ -21277,11 +22400,14 @@
       <c r="M322" s="6" t="s">
         <v>1744</v>
       </c>
-      <c r="N322" s="51" t="s">
+      <c r="N322" s="59" t="s">
         <v>3254</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O322" s="74" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A323" s="14" t="s">
         <v>2749</v>
       </c>
@@ -21313,9 +22439,10 @@
       <c r="K323" s="6"/>
       <c r="L323" s="6"/>
       <c r="M323" s="6"/>
-      <c r="N323" s="6"/>
-    </row>
-    <row r="324" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N323" s="63"/>
+      <c r="O323" s="6"/>
+    </row>
+    <row r="324" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A324" s="14"/>
       <c r="B324" s="31" t="s">
         <v>830</v>
@@ -21349,11 +22476,12 @@
       </c>
       <c r="L324" s="6"/>
       <c r="M324" s="6"/>
-      <c r="N324" s="51">
+      <c r="N324" s="59">
         <v>44932</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O324" s="51"/>
+    </row>
+    <row r="325" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A325" s="14"/>
       <c r="B325" s="31" t="s">
         <v>1618</v>
@@ -21388,8 +22516,11 @@
       <c r="N325" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O325" s="73" t="s">
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A326" s="14"/>
       <c r="B326" s="31" t="s">
         <v>870</v>
@@ -21424,8 +22555,11 @@
       <c r="N326" s="48">
         <v>44568</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O326" s="73" t="s">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A327" s="14"/>
       <c r="B327" s="31" t="s">
         <v>304</v>
@@ -21459,11 +22593,12 @@
       </c>
       <c r="L327" s="6"/>
       <c r="M327" s="6"/>
-      <c r="N327" s="51" t="s">
+      <c r="N327" s="59" t="s">
         <v>3254</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O327" s="51"/>
+    </row>
+    <row r="328" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A328" s="14"/>
       <c r="B328" s="31" t="s">
         <v>985</v>
@@ -21504,8 +22639,11 @@
       <c r="N328" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O328" s="73" t="s">
+        <v>3359</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A329" s="14"/>
       <c r="B329" s="31" t="s">
         <v>992</v>
@@ -21540,8 +22678,11 @@
       <c r="N329" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O329" s="73" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A330" s="14"/>
       <c r="B330" s="31" t="s">
         <v>1386</v>
@@ -21578,8 +22719,11 @@
       <c r="N330" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O330" s="73" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A331" s="14"/>
       <c r="B331" s="31" t="s">
         <v>1471</v>
@@ -21611,11 +22755,12 @@
       <c r="K331" s="6"/>
       <c r="L331" s="6"/>
       <c r="M331" s="6"/>
-      <c r="N331" s="51" t="s">
+      <c r="N331" s="59" t="s">
         <v>3254</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O331" s="51"/>
+    </row>
+    <row r="332" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A332" s="14"/>
       <c r="B332" s="31" t="s">
         <v>1488</v>
@@ -21645,9 +22790,10 @@
       <c r="K332" s="6"/>
       <c r="L332" s="6"/>
       <c r="M332" s="6"/>
-      <c r="N332" s="6"/>
-    </row>
-    <row r="333" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N332" s="63"/>
+      <c r="O332" s="6"/>
+    </row>
+    <row r="333" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A333" s="14" t="s">
         <v>2749</v>
       </c>
@@ -21673,9 +22819,12 @@
       <c r="K333" s="6"/>
       <c r="L333" s="6"/>
       <c r="M333" s="6"/>
-      <c r="N333" s="6"/>
-    </row>
-    <row r="334" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N333" s="63"/>
+      <c r="O333" s="7" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A334" s="14"/>
       <c r="B334" s="24" t="s">
         <v>2239</v>
@@ -21705,9 +22854,10 @@
       <c r="M334" s="6" t="s">
         <v>2245</v>
       </c>
-      <c r="N334" s="6"/>
-    </row>
-    <row r="335" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N334" s="63"/>
+      <c r="O334" s="6"/>
+    </row>
+    <row r="335" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A335" s="14"/>
       <c r="B335" s="24" t="s">
         <v>992</v>
@@ -21738,8 +22888,9 @@
       <c r="L335" s="6"/>
       <c r="M335" s="6"/>
       <c r="N335" s="48"/>
-    </row>
-    <row r="336" spans="1:14" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O335" s="50"/>
+    </row>
+    <row r="336" spans="1:15" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="14"/>
       <c r="B336" s="24" t="s">
         <v>2309</v>
@@ -21771,9 +22922,10 @@
       <c r="K336" s="6"/>
       <c r="L336" s="6"/>
       <c r="M336" s="6"/>
-      <c r="N336" s="6"/>
-    </row>
-    <row r="337" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N336" s="63"/>
+      <c r="O336" s="6"/>
+    </row>
+    <row r="337" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A337" s="14"/>
       <c r="B337" s="24" t="s">
         <v>2355</v>
@@ -21801,9 +22953,10 @@
       <c r="K337" s="6"/>
       <c r="L337" s="6"/>
       <c r="M337" s="6"/>
-      <c r="N337" s="6"/>
-    </row>
-    <row r="338" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N337" s="63"/>
+      <c r="O337" s="6"/>
+    </row>
+    <row r="338" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A338" s="14"/>
       <c r="B338" s="24" t="s">
         <v>2444</v>
@@ -21831,9 +22984,10 @@
       <c r="K338" s="6"/>
       <c r="L338" s="6"/>
       <c r="M338" s="6"/>
-      <c r="N338" s="6"/>
-    </row>
-    <row r="339" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N338" s="63"/>
+      <c r="O338" s="6"/>
+    </row>
+    <row r="339" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A339" s="14"/>
       <c r="B339" s="24" t="s">
         <v>2453</v>
@@ -21869,11 +23023,12 @@
       <c r="M339" s="6" t="s">
         <v>2463</v>
       </c>
-      <c r="N339" s="35">
+      <c r="N339" s="65">
         <v>45297</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O339" s="35"/>
+    </row>
+    <row r="340" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A340" s="14"/>
       <c r="B340" s="24" t="s">
         <v>2506</v>
@@ -21899,9 +23054,10 @@
       <c r="K340" s="6"/>
       <c r="L340" s="6"/>
       <c r="M340" s="6"/>
-      <c r="N340" s="6"/>
-    </row>
-    <row r="341" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N340" s="63"/>
+      <c r="O340" s="6"/>
+    </row>
+    <row r="341" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A341" s="14" t="s">
         <v>2749</v>
       </c>
@@ -21939,9 +23095,10 @@
       <c r="M341" s="35">
         <v>47246</v>
       </c>
-      <c r="N341" s="6"/>
-    </row>
-    <row r="342" spans="1:14" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N341" s="63"/>
+      <c r="O341" s="6"/>
+    </row>
+    <row r="342" spans="1:15" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="14"/>
       <c r="B342" s="24" t="s">
         <v>2618</v>
@@ -21969,9 +23126,10 @@
       <c r="K342" s="7"/>
       <c r="L342" s="6"/>
       <c r="M342" s="6"/>
-      <c r="N342" s="6"/>
-    </row>
-    <row r="343" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N342" s="63"/>
+      <c r="O342" s="6"/>
+    </row>
+    <row r="343" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A343" s="14"/>
       <c r="B343" s="24" t="s">
         <v>2736</v>
@@ -22003,9 +23161,10 @@
       <c r="M343" s="6" t="s">
         <v>2580</v>
       </c>
-      <c r="N343" s="6"/>
-    </row>
-    <row r="344" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N343" s="63"/>
+      <c r="O343" s="6"/>
+    </row>
+    <row r="344" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A344" s="14"/>
       <c r="B344" s="24" t="s">
         <v>2761</v>
@@ -22031,9 +23190,10 @@
       <c r="K344" s="7"/>
       <c r="L344" s="6"/>
       <c r="M344" s="6"/>
-      <c r="N344" s="6"/>
-    </row>
-    <row r="345" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N344" s="63"/>
+      <c r="O344" s="6"/>
+    </row>
+    <row r="345" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A345" s="14"/>
       <c r="B345" s="24" t="s">
         <v>2824</v>
@@ -22059,9 +23219,10 @@
       <c r="K345" s="7"/>
       <c r="L345" s="6"/>
       <c r="M345" s="6"/>
-      <c r="N345" s="6"/>
-    </row>
-    <row r="346" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N345" s="63"/>
+      <c r="O345" s="6"/>
+    </row>
+    <row r="346" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A346" s="14" t="s">
         <v>2749</v>
       </c>
@@ -22095,9 +23256,10 @@
       <c r="K346" s="6"/>
       <c r="L346" s="6"/>
       <c r="M346" s="6"/>
-      <c r="N346" s="6"/>
-    </row>
-    <row r="347" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N346" s="63"/>
+      <c r="O346" s="6"/>
+    </row>
+    <row r="347" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A347" s="14"/>
       <c r="B347" s="24" t="s">
         <v>2892</v>
@@ -22129,11 +23291,12 @@
       <c r="K347" s="6"/>
       <c r="L347" s="6"/>
       <c r="M347" s="6"/>
-      <c r="N347" s="6" t="s">
+      <c r="N347" s="63" t="s">
         <v>3259</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O347" s="6"/>
+    </row>
+    <row r="348" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A348" s="14"/>
       <c r="B348" s="24" t="s">
         <v>3079</v>
@@ -22169,9 +23332,10 @@
       <c r="M348" s="6" t="s">
         <v>3089</v>
       </c>
-      <c r="N348" s="6"/>
-    </row>
-    <row r="349" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N348" s="63"/>
+      <c r="O348" s="6"/>
+    </row>
+    <row r="349" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A349" s="14"/>
       <c r="B349" s="24" t="s">
         <v>3188</v>
@@ -22194,10 +23358,10 @@
       <c r="H349" s="7" t="s">
         <v>3193</v>
       </c>
-      <c r="I349" s="7"/>
-      <c r="J349" s="7" t="s">
+      <c r="I349" s="7" t="s">
         <v>3194</v>
       </c>
+      <c r="J349" s="7"/>
       <c r="K349" s="6"/>
       <c r="L349" s="6" t="s">
         <v>3195</v>
@@ -22205,9 +23369,10 @@
       <c r="M349" s="35">
         <v>47366</v>
       </c>
-      <c r="N349" s="6"/>
-    </row>
-    <row r="350" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N349" s="63"/>
+      <c r="O349" s="6"/>
+    </row>
+    <row r="350" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A350" s="14"/>
       <c r="B350" s="24" t="s">
         <v>3215</v>
@@ -22241,9 +23406,10 @@
       <c r="M350" s="6" t="s">
         <v>3224</v>
       </c>
-      <c r="N350" s="6"/>
-    </row>
-    <row r="351" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N350" s="63"/>
+      <c r="O350" s="6"/>
+    </row>
+    <row r="351" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A351" s="14"/>
       <c r="B351" s="24" t="s">
         <v>3226</v>
@@ -22279,9 +23445,10 @@
       <c r="M351" s="35">
         <v>45420</v>
       </c>
-      <c r="N351" s="6"/>
-    </row>
-    <row r="352" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N351" s="63"/>
+      <c r="O351" s="6"/>
+    </row>
+    <row r="352" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A352" s="14"/>
       <c r="B352" s="24"/>
       <c r="C352" s="24"/>
@@ -22295,9 +23462,10 @@
       <c r="K352" s="6"/>
       <c r="L352" s="6"/>
       <c r="M352" s="6"/>
-      <c r="N352" s="6"/>
-    </row>
-    <row r="353" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N352" s="63"/>
+      <c r="O352" s="6"/>
+    </row>
+    <row r="353" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A353" s="14"/>
       <c r="B353" s="24"/>
       <c r="C353" s="24"/>
@@ -22311,9 +23479,10 @@
       <c r="K353" s="6"/>
       <c r="L353" s="6"/>
       <c r="M353" s="6"/>
-      <c r="N353" s="6"/>
-    </row>
-    <row r="354" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N353" s="63"/>
+      <c r="O353" s="6"/>
+    </row>
+    <row r="354" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A354" s="14"/>
       <c r="B354" s="24"/>
       <c r="C354" s="24"/>
@@ -22327,9 +23496,10 @@
       <c r="K354" s="6"/>
       <c r="L354" s="6"/>
       <c r="M354" s="6"/>
-      <c r="N354" s="6"/>
-    </row>
-    <row r="355" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N354" s="63"/>
+      <c r="O354" s="6"/>
+    </row>
+    <row r="355" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A355" s="14"/>
       <c r="B355" s="24"/>
       <c r="C355" s="24"/>
@@ -22345,9 +23515,10 @@
       <c r="K355" s="6"/>
       <c r="L355" s="6"/>
       <c r="M355" s="6"/>
-      <c r="N355" s="6"/>
-    </row>
-    <row r="356" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N355" s="63"/>
+      <c r="O355" s="6"/>
+    </row>
+    <row r="356" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A356" s="15" t="s">
         <v>29</v>
       </c>
@@ -22387,11 +23558,14 @@
       <c r="M356" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N356" s="3" t="s">
+      <c r="N356" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O356" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A357" s="14"/>
       <c r="B357" s="24" t="s">
         <v>49</v>
@@ -22428,8 +23602,11 @@
       <c r="N357" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O357" s="73" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A358" s="14"/>
       <c r="B358" s="24" t="s">
         <v>852</v>
@@ -22468,8 +23645,11 @@
       <c r="N358" s="48">
         <v>44568</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O358" s="73" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A359" s="14"/>
       <c r="B359" s="24"/>
       <c r="C359" s="24"/>
@@ -22483,9 +23663,10 @@
       <c r="K359" s="6"/>
       <c r="L359" s="6"/>
       <c r="M359" s="6"/>
-      <c r="N359" s="6"/>
-    </row>
-    <row r="360" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N359" s="63"/>
+      <c r="O359" s="6"/>
+    </row>
+    <row r="360" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A360" s="14"/>
       <c r="B360" s="24"/>
       <c r="C360" s="24"/>
@@ -22499,9 +23680,10 @@
       <c r="K360" s="6"/>
       <c r="L360" s="6"/>
       <c r="M360" s="6"/>
-      <c r="N360" s="6"/>
-    </row>
-    <row r="361" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N360" s="63"/>
+      <c r="O360" s="6"/>
+    </row>
+    <row r="361" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A361" s="14"/>
       <c r="B361" s="24"/>
       <c r="C361" s="24"/>
@@ -22515,9 +23697,10 @@
       <c r="K361" s="6"/>
       <c r="L361" s="6"/>
       <c r="M361" s="6"/>
-      <c r="N361" s="6"/>
-    </row>
-    <row r="362" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N361" s="63"/>
+      <c r="O361" s="6"/>
+    </row>
+    <row r="362" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A362" s="14"/>
       <c r="B362" s="24"/>
       <c r="C362" s="24"/>
@@ -22531,9 +23714,10 @@
       <c r="K362" s="6"/>
       <c r="L362" s="6"/>
       <c r="M362" s="6"/>
-      <c r="N362" s="6"/>
-    </row>
-    <row r="363" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N362" s="63"/>
+      <c r="O362" s="6"/>
+    </row>
+    <row r="363" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A363" s="14"/>
       <c r="B363" s="24"/>
       <c r="C363" s="24"/>
@@ -22549,9 +23733,10 @@
       <c r="K363" s="6"/>
       <c r="L363" s="6"/>
       <c r="M363" s="6"/>
-      <c r="N363" s="6"/>
-    </row>
-    <row r="364" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N363" s="63"/>
+      <c r="O363" s="6"/>
+    </row>
+    <row r="364" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A364" s="14"/>
       <c r="B364" s="24"/>
       <c r="C364" s="24"/>
@@ -22565,9 +23750,10 @@
       <c r="K364" s="6"/>
       <c r="L364" s="6"/>
       <c r="M364" s="6"/>
-      <c r="N364" s="6"/>
-    </row>
-    <row r="365" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N364" s="63"/>
+      <c r="O364" s="6"/>
+    </row>
+    <row r="365" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A365" s="15" t="s">
         <v>30</v>
       </c>
@@ -22607,11 +23793,14 @@
       <c r="M365" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N365" s="3" t="s">
+      <c r="N365" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O365" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A366" s="11" t="s">
         <v>2749</v>
       </c>
@@ -22649,9 +23838,10 @@
       <c r="M366" s="39">
         <v>45109</v>
       </c>
-      <c r="N366" s="8"/>
-    </row>
-    <row r="367" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N366" s="70"/>
+      <c r="O366" s="8"/>
+    </row>
+    <row r="367" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A367" s="14"/>
       <c r="B367" s="31" t="s">
         <v>40</v>
@@ -22690,8 +23880,11 @@
       <c r="N367" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O367" s="73" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A368" s="14"/>
       <c r="B368" s="31" t="s">
         <v>844</v>
@@ -22727,9 +23920,12 @@
       <c r="M368" s="30" t="s">
         <v>1595</v>
       </c>
-      <c r="N368" s="6"/>
-    </row>
-    <row r="369" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N368" s="63"/>
+      <c r="O368" s="7" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A369" s="14"/>
       <c r="B369" s="24" t="s">
         <v>1162</v>
@@ -22765,11 +23961,14 @@
       <c r="M369" s="35">
         <v>46086</v>
       </c>
-      <c r="N369" s="51" t="s">
+      <c r="N369" s="59" t="s">
         <v>3249</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O369" s="74" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A370" s="14"/>
       <c r="B370" s="24" t="s">
         <v>1547</v>
@@ -22797,9 +23996,10 @@
       <c r="K370" s="6"/>
       <c r="L370" s="6"/>
       <c r="M370" s="35"/>
-      <c r="N370" s="6"/>
-    </row>
-    <row r="371" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N370" s="63"/>
+      <c r="O370" s="6"/>
+    </row>
+    <row r="371" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A371" s="14"/>
       <c r="B371" s="24" t="s">
         <v>2547</v>
@@ -22827,9 +24027,10 @@
       <c r="K371" s="6"/>
       <c r="L371" s="6"/>
       <c r="M371" s="35"/>
-      <c r="N371" s="6"/>
-    </row>
-    <row r="372" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N371" s="63"/>
+      <c r="O371" s="6"/>
+    </row>
+    <row r="372" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A372" s="14"/>
       <c r="B372" s="24" t="s">
         <v>2766</v>
@@ -22859,9 +24060,10 @@
       <c r="K372" s="6"/>
       <c r="L372" s="6"/>
       <c r="M372" s="35"/>
-      <c r="N372" s="6"/>
-    </row>
-    <row r="373" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N372" s="63"/>
+      <c r="O372" s="6"/>
+    </row>
+    <row r="373" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A373" s="14"/>
       <c r="B373" s="24" t="s">
         <v>189</v>
@@ -22889,9 +24091,10 @@
       <c r="K373" s="6"/>
       <c r="L373" s="6"/>
       <c r="M373" s="35"/>
-      <c r="N373" s="6"/>
-    </row>
-    <row r="374" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N373" s="63"/>
+      <c r="O373" s="6"/>
+    </row>
+    <row r="374" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A374" s="14"/>
       <c r="B374" s="24"/>
       <c r="C374" s="24"/>
@@ -22905,9 +24108,10 @@
       <c r="K374" s="6"/>
       <c r="L374" s="6"/>
       <c r="M374" s="6"/>
-      <c r="N374" s="6"/>
-    </row>
-    <row r="375" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N374" s="63"/>
+      <c r="O374" s="6"/>
+    </row>
+    <row r="375" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A375" s="14"/>
       <c r="B375" s="24"/>
       <c r="C375" s="24"/>
@@ -22921,9 +24125,10 @@
       <c r="K375" s="6"/>
       <c r="L375" s="6"/>
       <c r="M375" s="6"/>
-      <c r="N375" s="6"/>
-    </row>
-    <row r="376" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N375" s="63"/>
+      <c r="O375" s="6"/>
+    </row>
+    <row r="376" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A376" s="15" t="s">
         <v>31</v>
       </c>
@@ -22963,11 +24168,14 @@
       <c r="M376" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N376" s="3" t="s">
+      <c r="N376" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O376" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A377" s="14"/>
       <c r="B377" s="31" t="s">
         <v>242</v>
@@ -23005,11 +24213,14 @@
       <c r="M377" s="30" t="s">
         <v>1585</v>
       </c>
-      <c r="N377" s="51" t="s">
+      <c r="N377" s="59" t="s">
         <v>3250</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O377" s="74" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A378" s="14"/>
       <c r="B378" s="31" t="s">
         <v>408</v>
@@ -23041,9 +24252,12 @@
       </c>
       <c r="L378" s="29"/>
       <c r="M378" s="30"/>
-      <c r="N378" s="6"/>
-    </row>
-    <row r="379" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N378" s="63"/>
+      <c r="O378" s="7" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A379" s="14" t="s">
         <v>2749</v>
       </c>
@@ -23081,9 +24295,12 @@
       <c r="M379" s="30">
         <v>45782</v>
       </c>
-      <c r="N379" s="6"/>
-    </row>
-    <row r="380" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N379" s="63"/>
+      <c r="O379" s="7" t="s">
+        <v>3358</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A380" s="14"/>
       <c r="B380" s="31" t="s">
         <v>926</v>
@@ -23115,11 +24332,14 @@
       <c r="K380" s="6"/>
       <c r="L380" s="29"/>
       <c r="M380" s="30"/>
-      <c r="N380" s="51">
+      <c r="N380" s="59">
         <v>45292</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O380" s="74" t="s">
+        <v>3394</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A381" s="14"/>
       <c r="B381" s="31" t="s">
         <v>940</v>
@@ -23155,11 +24375,14 @@
       <c r="M381" s="30" t="s">
         <v>1757</v>
       </c>
-      <c r="N381" s="51">
+      <c r="N381" s="59">
         <v>44934</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O381" s="74" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A382" s="14"/>
       <c r="B382" s="31" t="s">
         <v>2236</v>
@@ -23195,11 +24418,14 @@
       <c r="M382" s="40" t="s">
         <v>1583</v>
       </c>
-      <c r="N382" s="51" t="s">
+      <c r="N382" s="59" t="s">
         <v>3252</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O382" s="74" t="s">
+        <v>3419</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A383" s="14"/>
       <c r="B383" s="31" t="s">
         <v>1305</v>
@@ -23231,11 +24457,14 @@
       <c r="K383" s="6"/>
       <c r="L383" s="6"/>
       <c r="M383" s="6"/>
-      <c r="N383" s="51">
+      <c r="N383" s="59">
         <v>44935</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O383" s="74" t="s">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A384" s="14"/>
       <c r="B384" s="31" t="s">
         <v>1314</v>
@@ -23267,9 +24496,12 @@
       <c r="K384" s="6"/>
       <c r="L384" s="6"/>
       <c r="M384" s="6"/>
-      <c r="N384" s="6"/>
-    </row>
-    <row r="385" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N384" s="63"/>
+      <c r="O384" s="7" t="s">
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A385" s="14"/>
       <c r="B385" s="31" t="s">
         <v>926</v>
@@ -23297,11 +24529,12 @@
       <c r="K385" s="6"/>
       <c r="L385" s="6"/>
       <c r="M385" s="6"/>
-      <c r="N385" s="51">
+      <c r="N385" s="59">
         <v>45292</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O385" s="51"/>
+    </row>
+    <row r="386" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A386" s="14"/>
       <c r="B386" s="31" t="s">
         <v>1326</v>
@@ -23340,8 +24573,11 @@
       <c r="N386" s="48">
         <v>44572</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O386" s="73" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A387" s="14"/>
       <c r="B387" s="31" t="s">
         <v>1400</v>
@@ -23380,8 +24616,11 @@
       <c r="N387" s="48">
         <v>44572</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O387" s="73" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A388" s="14"/>
       <c r="B388" s="31" t="s">
         <v>1433</v>
@@ -23420,8 +24659,11 @@
       <c r="N388" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O388" s="73" t="s">
+        <v>3392</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A389" s="14" t="s">
         <v>2749</v>
       </c>
@@ -23455,9 +24697,12 @@
       <c r="K389" s="6"/>
       <c r="L389" s="29"/>
       <c r="M389" s="30"/>
-      <c r="N389" s="6"/>
-    </row>
-    <row r="390" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N389" s="63"/>
+      <c r="O389" s="7" t="s">
+        <v>3379</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A390" s="14" t="s">
         <v>2749</v>
       </c>
@@ -23487,9 +24732,10 @@
       <c r="M390" s="6" t="s">
         <v>1942</v>
       </c>
-      <c r="N390" s="6"/>
-    </row>
-    <row r="391" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N390" s="63"/>
+      <c r="O390" s="6"/>
+    </row>
+    <row r="391" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A391" s="14" t="s">
         <v>2749</v>
       </c>
@@ -23519,9 +24765,10 @@
         <v>1977</v>
       </c>
       <c r="M391" s="6"/>
-      <c r="N391" s="6"/>
-    </row>
-    <row r="392" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N391" s="63"/>
+      <c r="O391" s="6"/>
+    </row>
+    <row r="392" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A392" s="14"/>
       <c r="B392" s="31" t="s">
         <v>2339</v>
@@ -23549,9 +24796,10 @@
       <c r="K392" s="6"/>
       <c r="L392" s="6"/>
       <c r="M392" s="6"/>
-      <c r="N392" s="6"/>
-    </row>
-    <row r="393" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N392" s="63"/>
+      <c r="O392" s="6"/>
+    </row>
+    <row r="393" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A393" s="14"/>
       <c r="B393" s="31" t="s">
         <v>926</v>
@@ -23575,9 +24823,10 @@
       <c r="K393" s="6"/>
       <c r="L393" s="6"/>
       <c r="M393" s="6"/>
-      <c r="N393" s="6"/>
-    </row>
-    <row r="394" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N393" s="63"/>
+      <c r="O393" s="6"/>
+    </row>
+    <row r="394" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A394" s="14" t="s">
         <v>2749</v>
       </c>
@@ -23607,9 +24856,10 @@
       <c r="K394" s="6"/>
       <c r="L394" s="6"/>
       <c r="M394" s="6"/>
-      <c r="N394" s="6"/>
-    </row>
-    <row r="395" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N394" s="63"/>
+      <c r="O394" s="6"/>
+    </row>
+    <row r="395" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A395" s="14"/>
       <c r="B395" s="31" t="s">
         <v>2755</v>
@@ -23641,9 +24891,12 @@
       <c r="K395" s="6"/>
       <c r="L395" s="6"/>
       <c r="M395" s="6"/>
-      <c r="N395" s="6"/>
-    </row>
-    <row r="396" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N395" s="63"/>
+      <c r="O395" s="7" t="s">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A396" s="14"/>
       <c r="B396" s="31" t="s">
         <v>2963</v>
@@ -23671,9 +24924,10 @@
       <c r="K396" s="6"/>
       <c r="L396" s="6"/>
       <c r="M396" s="6"/>
-      <c r="N396" s="6"/>
-    </row>
-    <row r="397" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N396" s="63"/>
+      <c r="O396" s="6"/>
+    </row>
+    <row r="397" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A397" s="14"/>
       <c r="B397" s="31" t="s">
         <v>2755</v>
@@ -23703,9 +24957,10 @@
       <c r="K397" s="6"/>
       <c r="L397" s="6"/>
       <c r="M397" s="6"/>
-      <c r="N397" s="6"/>
-    </row>
-    <row r="398" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N397" s="63"/>
+      <c r="O397" s="6"/>
+    </row>
+    <row r="398" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A398" s="14" t="s">
         <v>2749</v>
       </c>
@@ -23733,9 +24988,10 @@
       <c r="K398" s="6"/>
       <c r="L398" s="6"/>
       <c r="M398" s="6"/>
-      <c r="N398" s="6"/>
-    </row>
-    <row r="399" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N398" s="63"/>
+      <c r="O398" s="6"/>
+    </row>
+    <row r="399" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A399" s="14"/>
       <c r="B399" s="24" t="s">
         <v>3041</v>
@@ -23765,9 +25021,10 @@
       <c r="K399" s="6"/>
       <c r="L399" s="6"/>
       <c r="M399" s="6"/>
-      <c r="N399" s="6"/>
-    </row>
-    <row r="400" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N399" s="63"/>
+      <c r="O399" s="6"/>
+    </row>
+    <row r="400" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A400" s="14"/>
       <c r="B400" s="24" t="s">
         <v>2755</v>
@@ -23793,9 +25050,10 @@
       <c r="K400" s="6"/>
       <c r="L400" s="6"/>
       <c r="M400" s="6"/>
-      <c r="N400" s="6"/>
-    </row>
-    <row r="401" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N400" s="63"/>
+      <c r="O400" s="6"/>
+    </row>
+    <row r="401" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A401" s="14"/>
       <c r="B401" s="24" t="s">
         <v>3270</v>
@@ -23821,9 +25079,10 @@
       <c r="K401" s="6"/>
       <c r="L401" s="6"/>
       <c r="M401" s="6"/>
-      <c r="N401" s="6"/>
-    </row>
-    <row r="402" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N401" s="63"/>
+      <c r="O401" s="6"/>
+    </row>
+    <row r="402" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A402" s="14"/>
       <c r="B402" s="24"/>
       <c r="C402" s="24"/>
@@ -23837,9 +25096,10 @@
       <c r="K402" s="6"/>
       <c r="L402" s="6"/>
       <c r="M402" s="6"/>
-      <c r="N402" s="6"/>
-    </row>
-    <row r="403" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N402" s="63"/>
+      <c r="O402" s="6"/>
+    </row>
+    <row r="403" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A403" s="14"/>
       <c r="B403" s="31"/>
       <c r="C403" s="31"/>
@@ -23853,9 +25113,10 @@
       <c r="K403" s="6"/>
       <c r="L403" s="6"/>
       <c r="M403" s="6"/>
-      <c r="N403" s="6"/>
-    </row>
-    <row r="404" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N403" s="63"/>
+      <c r="O403" s="6"/>
+    </row>
+    <row r="404" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A404" s="14"/>
       <c r="B404" s="24"/>
       <c r="C404" s="24"/>
@@ -23869,9 +25130,10 @@
       <c r="K404" s="6"/>
       <c r="L404" s="6"/>
       <c r="M404" s="6"/>
-      <c r="N404" s="6"/>
-    </row>
-    <row r="405" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N404" s="63"/>
+      <c r="O404" s="6"/>
+    </row>
+    <row r="405" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A405" s="15" t="s">
         <v>32</v>
       </c>
@@ -23911,11 +25173,14 @@
       <c r="M405" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N405" s="3" t="s">
+      <c r="N405" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O405" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A406" s="14"/>
       <c r="B406" s="24" t="s">
         <v>1409</v>
@@ -23952,8 +25217,9 @@
       <c r="N406" s="48">
         <v>44572</v>
       </c>
-    </row>
-    <row r="407" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O406" s="50"/>
+    </row>
+    <row r="407" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A407" s="14" t="s">
         <v>2749</v>
       </c>
@@ -23981,9 +25247,10 @@
       <c r="K407" s="6"/>
       <c r="L407" s="6"/>
       <c r="M407" s="6"/>
-      <c r="N407" s="6"/>
-    </row>
-    <row r="408" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N407" s="63"/>
+      <c r="O407" s="6"/>
+    </row>
+    <row r="408" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A408" s="14" t="s">
         <v>2749</v>
       </c>
@@ -24017,9 +25284,10 @@
       <c r="K408" s="6"/>
       <c r="L408" s="6"/>
       <c r="M408" s="6"/>
-      <c r="N408" s="6"/>
-    </row>
-    <row r="409" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N408" s="63"/>
+      <c r="O408" s="6"/>
+    </row>
+    <row r="409" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A409" s="14"/>
       <c r="B409" s="31" t="s">
         <v>2861</v>
@@ -24045,9 +25313,10 @@
       <c r="K409" s="6"/>
       <c r="L409" s="6"/>
       <c r="M409" s="6"/>
-      <c r="N409" s="6"/>
-    </row>
-    <row r="410" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N409" s="63"/>
+      <c r="O409" s="6"/>
+    </row>
+    <row r="410" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A410" s="14"/>
       <c r="B410" s="31"/>
       <c r="C410" s="31"/>
@@ -24061,9 +25330,10 @@
       <c r="K410" s="6"/>
       <c r="L410" s="6"/>
       <c r="M410" s="6"/>
-      <c r="N410" s="6"/>
-    </row>
-    <row r="411" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N410" s="63"/>
+      <c r="O410" s="6"/>
+    </row>
+    <row r="411" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A411" s="14"/>
       <c r="B411" s="24"/>
       <c r="C411" s="24"/>
@@ -24077,9 +25347,10 @@
       <c r="K411" s="6"/>
       <c r="L411" s="6"/>
       <c r="M411" s="6"/>
-      <c r="N411" s="6"/>
-    </row>
-    <row r="412" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N411" s="63"/>
+      <c r="O411" s="6"/>
+    </row>
+    <row r="412" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A412" s="15" t="s">
         <v>33</v>
       </c>
@@ -24119,11 +25390,14 @@
       <c r="M412" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N412" s="3" t="s">
+      <c r="N412" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="413" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O412" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A413" s="14"/>
       <c r="B413" s="31" t="s">
         <v>1148</v>
@@ -24161,11 +25435,12 @@
       <c r="M413" s="6" t="s">
         <v>1873</v>
       </c>
-      <c r="N413" s="51" t="s">
+      <c r="N413" s="59" t="s">
         <v>3252</v>
       </c>
-    </row>
-    <row r="414" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O413" s="51"/>
+    </row>
+    <row r="414" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A414" s="14"/>
       <c r="B414" s="31" t="s">
         <v>1267</v>
@@ -24204,8 +25479,11 @@
       <c r="N414" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="415" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O414" s="73" t="s">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A415" s="14" t="s">
         <v>2749</v>
       </c>
@@ -24233,9 +25511,10 @@
       <c r="K415" s="6"/>
       <c r="L415" s="6"/>
       <c r="M415" s="6"/>
-      <c r="N415" s="6"/>
-    </row>
-    <row r="416" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N415" s="63"/>
+      <c r="O415" s="6"/>
+    </row>
+    <row r="416" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A416" s="14"/>
       <c r="B416" s="31" t="s">
         <v>1425</v>
@@ -24270,8 +25549,9 @@
       <c r="N416" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="417" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O416" s="50"/>
+    </row>
+    <row r="417" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A417" s="14"/>
       <c r="B417" s="31" t="s">
         <v>2135</v>
@@ -24303,11 +25583,14 @@
       <c r="K417" s="6"/>
       <c r="L417" s="6"/>
       <c r="M417" s="6"/>
-      <c r="N417" s="6" t="s">
+      <c r="N417" s="63" t="s">
         <v>3257</v>
       </c>
-    </row>
-    <row r="418" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O417" s="7" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A418" s="14"/>
       <c r="B418" s="31" t="s">
         <v>410</v>
@@ -24343,11 +25626,12 @@
       <c r="M418" s="7" t="s">
         <v>2156</v>
       </c>
-      <c r="N418" s="51">
+      <c r="N418" s="59">
         <v>45292</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O418" s="51"/>
+    </row>
+    <row r="419" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A419" s="14" t="s">
         <v>2749</v>
       </c>
@@ -24383,9 +25667,10 @@
         <v>2200</v>
       </c>
       <c r="M419" s="6"/>
-      <c r="N419" s="6"/>
-    </row>
-    <row r="420" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N419" s="63"/>
+      <c r="O419" s="6"/>
+    </row>
+    <row r="420" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A420" s="14"/>
       <c r="B420" s="24" t="s">
         <v>2346</v>
@@ -24418,8 +25703,9 @@
       <c r="N420" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O420" s="50"/>
+    </row>
+    <row r="421" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A421" s="14" t="s">
         <v>2749</v>
       </c>
@@ -24449,9 +25735,10 @@
       <c r="K421" s="6"/>
       <c r="L421" s="6"/>
       <c r="M421" s="7"/>
-      <c r="N421" s="6"/>
-    </row>
-    <row r="422" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N421" s="63"/>
+      <c r="O421" s="6"/>
+    </row>
+    <row r="422" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A422" s="14"/>
       <c r="B422" s="24" t="s">
         <v>1148</v>
@@ -24490,8 +25777,11 @@
       <c r="N422" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="423" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O422" s="73" t="s">
+        <v>3370</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A423" s="14"/>
       <c r="B423" s="24" t="s">
         <v>1315</v>
@@ -24523,11 +25813,14 @@
       <c r="K423" s="6"/>
       <c r="L423" s="6"/>
       <c r="M423" s="6"/>
-      <c r="N423" s="35">
+      <c r="N423" s="65">
         <v>45297</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O423" s="34" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A424" s="14"/>
       <c r="B424" s="24" t="s">
         <v>2487</v>
@@ -24553,9 +25846,10 @@
       <c r="K424" s="6"/>
       <c r="L424" s="6"/>
       <c r="M424" s="6"/>
-      <c r="N424" s="6"/>
-    </row>
-    <row r="425" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N424" s="63"/>
+      <c r="O424" s="6"/>
+    </row>
+    <row r="425" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A425" s="14"/>
       <c r="B425" s="24"/>
       <c r="C425" s="24"/>
@@ -24569,9 +25863,10 @@
       <c r="K425" s="6"/>
       <c r="L425" s="6"/>
       <c r="M425" s="6"/>
-      <c r="N425" s="6"/>
-    </row>
-    <row r="426" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N425" s="63"/>
+      <c r="O425" s="6"/>
+    </row>
+    <row r="426" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A426" s="14"/>
       <c r="B426" s="24"/>
       <c r="C426" s="24"/>
@@ -24585,9 +25880,10 @@
       <c r="K426" s="6"/>
       <c r="L426" s="6"/>
       <c r="M426" s="6"/>
-      <c r="N426" s="6"/>
-    </row>
-    <row r="427" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N426" s="63"/>
+      <c r="O426" s="6"/>
+    </row>
+    <row r="427" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A427" s="14"/>
       <c r="B427" s="24"/>
       <c r="C427" s="24"/>
@@ -24601,9 +25897,10 @@
       <c r="K427" s="6"/>
       <c r="L427" s="6"/>
       <c r="M427" s="6"/>
-      <c r="N427" s="6"/>
-    </row>
-    <row r="428" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N427" s="63"/>
+      <c r="O427" s="6"/>
+    </row>
+    <row r="428" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A428" s="15" t="s">
         <v>34</v>
       </c>
@@ -24643,11 +25940,14 @@
       <c r="M428" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N428" s="3" t="s">
+      <c r="N428" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O428" s="57" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A429" s="14"/>
       <c r="B429" s="31" t="s">
         <v>194</v>
@@ -24684,8 +25984,9 @@
       <c r="N429" s="51" t="s">
         <v>3254</v>
       </c>
-    </row>
-    <row r="430" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O429" s="51"/>
+    </row>
+    <row r="430" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A430" s="14"/>
       <c r="B430" s="31" t="s">
         <v>894</v>
@@ -24723,11 +26024,14 @@
       <c r="M430" s="6" t="s">
         <v>1752</v>
       </c>
-      <c r="N430" s="49">
+      <c r="N430" s="54">
         <v>44774</v>
       </c>
-    </row>
-    <row r="431" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O430" s="75" t="s">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A431" s="14"/>
       <c r="B431" s="31" t="s">
         <v>1157</v>
@@ -24761,11 +26065,12 @@
       <c r="M431" s="33" t="s">
         <v>1772</v>
       </c>
-      <c r="N431" s="48">
+      <c r="N431" s="50">
         <v>44567</v>
       </c>
-    </row>
-    <row r="432" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O431" s="50"/>
+    </row>
+    <row r="432" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A432" s="14"/>
       <c r="B432" s="31" t="s">
         <v>1273</v>
@@ -24798,8 +26103,11 @@
       <c r="N432" s="51">
         <v>45292</v>
       </c>
-    </row>
-    <row r="433" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O432" s="74" t="s">
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="433" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A433" s="14"/>
       <c r="B433" s="31" t="s">
         <v>1281</v>
@@ -24835,14 +26143,17 @@
       <c r="M433" s="30" t="s">
         <v>1593</v>
       </c>
-      <c r="N433" s="49">
+      <c r="N433" s="54">
         <v>44774</v>
       </c>
-      <c r="S433" s="2" t="s">
+      <c r="O433" s="75" t="s">
+        <v>3427</v>
+      </c>
+      <c r="T433" s="2" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="434" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A434" s="14"/>
       <c r="B434" s="31" t="s">
         <v>1289</v>
@@ -24878,11 +26189,14 @@
       <c r="M434" s="6" t="s">
         <v>1766</v>
       </c>
-      <c r="N434" s="48">
+      <c r="N434" s="50">
         <v>44567</v>
       </c>
-    </row>
-    <row r="435" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O434" s="73" t="s">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="435" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A435" s="14"/>
       <c r="B435" s="31" t="s">
         <v>1296</v>
@@ -24918,11 +26232,14 @@
       <c r="M435" s="6" t="s">
         <v>1764</v>
       </c>
-      <c r="N435" s="49">
+      <c r="N435" s="54">
         <v>44805</v>
       </c>
-    </row>
-    <row r="436" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O435" s="75" t="s">
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="436" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A436" s="14"/>
       <c r="B436" s="31" t="s">
         <v>1335</v>
@@ -24958,11 +26275,12 @@
       <c r="M436" s="33" t="s">
         <v>1783</v>
       </c>
-      <c r="N436" s="48">
+      <c r="N436" s="50">
         <v>44567</v>
       </c>
-    </row>
-    <row r="437" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O436" s="50"/>
+    </row>
+    <row r="437" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A437" s="14"/>
       <c r="B437" s="31" t="s">
         <v>1343</v>
@@ -24997,8 +26315,11 @@
       <c r="N437" s="51" t="s">
         <v>3255</v>
       </c>
-    </row>
-    <row r="438" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O437" s="74" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="438" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A438" s="14"/>
       <c r="B438" s="31" t="s">
         <v>1495</v>
@@ -25037,8 +26358,11 @@
       <c r="N438" s="51" t="s">
         <v>3249</v>
       </c>
-    </row>
-    <row r="439" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O438" s="74" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="439" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A439" s="14"/>
       <c r="B439" s="31" t="s">
         <v>1558</v>
@@ -25075,8 +26399,11 @@
       <c r="N439" s="51">
         <v>44938</v>
       </c>
-    </row>
-    <row r="440" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O439" s="74" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="440" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A440" s="14" t="s">
         <v>2749</v>
       </c>
@@ -25103,8 +26430,11 @@
       <c r="L440" s="6"/>
       <c r="M440" s="6"/>
       <c r="N440" s="6"/>
-    </row>
-    <row r="441" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O440" s="7" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="441" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A441" s="14"/>
       <c r="B441" s="31" t="s">
         <v>2277</v>
@@ -25135,8 +26465,9 @@
       <c r="N441" s="51">
         <v>45293</v>
       </c>
-    </row>
-    <row r="442" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O441" s="51"/>
+    </row>
+    <row r="442" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A442" s="14"/>
       <c r="B442" s="31" t="s">
         <v>2421</v>
@@ -25168,9 +26499,10 @@
       <c r="K442" s="6"/>
       <c r="L442" s="6"/>
       <c r="M442" s="6"/>
-      <c r="N442" s="6"/>
-    </row>
-    <row r="443" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N442" s="63"/>
+      <c r="O442" s="6"/>
+    </row>
+    <row r="443" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A443" s="14"/>
       <c r="B443" s="31" t="s">
         <v>2603</v>
@@ -25202,9 +26534,10 @@
         <v>2472</v>
       </c>
       <c r="M443" s="6"/>
-      <c r="N443" s="6"/>
-    </row>
-    <row r="444" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N443" s="63"/>
+      <c r="O443" s="6"/>
+    </row>
+    <row r="444" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A444" s="14"/>
       <c r="B444" s="31" t="s">
         <v>1613</v>
@@ -25240,9 +26573,10 @@
       <c r="M444" s="6" t="s">
         <v>2580</v>
       </c>
-      <c r="N444" s="6"/>
-    </row>
-    <row r="445" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N444" s="63"/>
+      <c r="O444" s="6"/>
+    </row>
+    <row r="445" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A445" s="14"/>
       <c r="B445" s="31" t="s">
         <v>2613</v>
@@ -25270,9 +26604,10 @@
       <c r="K445" s="6"/>
       <c r="L445" s="6"/>
       <c r="M445" s="6"/>
-      <c r="N445" s="6"/>
-    </row>
-    <row r="446" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N445" s="63"/>
+      <c r="O445" s="6"/>
+    </row>
+    <row r="446" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A446" s="14"/>
       <c r="B446" s="31" t="s">
         <v>2705</v>
@@ -25296,9 +26631,10 @@
       <c r="K446" s="6"/>
       <c r="L446" s="6"/>
       <c r="M446" s="6"/>
-      <c r="N446" s="6"/>
-    </row>
-    <row r="447" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N446" s="63"/>
+      <c r="O446" s="6"/>
+    </row>
+    <row r="447" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A447" s="14" t="s">
         <v>2749</v>
       </c>
@@ -25332,9 +26668,10 @@
       <c r="K447" s="6"/>
       <c r="L447" s="6"/>
       <c r="M447" s="6"/>
-      <c r="N447" s="6"/>
-    </row>
-    <row r="448" spans="1:19" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N447" s="63"/>
+      <c r="O447" s="6"/>
+    </row>
+    <row r="448" spans="1:20" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A448" s="14"/>
       <c r="B448" s="31" t="s">
         <v>1337</v>
@@ -25358,9 +26695,10 @@
       <c r="K448" s="6"/>
       <c r="L448" s="6"/>
       <c r="M448" s="6"/>
-      <c r="N448" s="6"/>
-    </row>
-    <row r="449" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N448" s="63"/>
+      <c r="O448" s="6"/>
+    </row>
+    <row r="449" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A449" s="14"/>
       <c r="B449" s="31" t="s">
         <v>2879</v>
@@ -25396,9 +26734,12 @@
       <c r="M449" s="6" t="s">
         <v>2889</v>
       </c>
-      <c r="N449" s="6"/>
-    </row>
-    <row r="450" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N449" s="63"/>
+      <c r="O449" s="7" t="s">
+        <v>3481</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A450" s="14"/>
       <c r="B450" s="31" t="s">
         <v>3178</v>
@@ -25424,9 +26765,10 @@
       <c r="K450" s="6"/>
       <c r="L450" s="6"/>
       <c r="M450" s="6"/>
-      <c r="N450" s="6"/>
-    </row>
-    <row r="451" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N450" s="63"/>
+      <c r="O450" s="6"/>
+    </row>
+    <row r="451" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A451" s="14"/>
       <c r="B451" s="31" t="s">
         <v>3196</v>
@@ -25460,9 +26802,10 @@
       <c r="M451" s="6" t="s">
         <v>3204</v>
       </c>
-      <c r="N451" s="6"/>
-    </row>
-    <row r="452" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N451" s="63"/>
+      <c r="O451" s="6"/>
+    </row>
+    <row r="452" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A452" s="14"/>
       <c r="B452" s="31"/>
       <c r="C452" s="31"/>
@@ -25476,9 +26819,10 @@
       <c r="K452" s="6"/>
       <c r="L452" s="6"/>
       <c r="M452" s="6"/>
-      <c r="N452" s="6"/>
-    </row>
-    <row r="453" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N452" s="63"/>
+      <c r="O452" s="6"/>
+    </row>
+    <row r="453" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A453" s="14"/>
       <c r="B453" s="31"/>
       <c r="C453" s="31"/>
@@ -25492,9 +26836,10 @@
       <c r="K453" s="6"/>
       <c r="L453" s="6"/>
       <c r="M453" s="6"/>
-      <c r="N453" s="6"/>
-    </row>
-    <row r="454" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N453" s="63"/>
+      <c r="O453" s="6"/>
+    </row>
+    <row r="454" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A454" s="14"/>
       <c r="B454" s="31"/>
       <c r="C454" s="31"/>
@@ -25508,9 +26853,10 @@
       <c r="K454" s="6"/>
       <c r="L454" s="6"/>
       <c r="M454" s="6"/>
-      <c r="N454" s="6"/>
-    </row>
-    <row r="455" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N454" s="63"/>
+      <c r="O454" s="6"/>
+    </row>
+    <row r="455" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A455" s="14"/>
       <c r="B455" s="31"/>
       <c r="C455" s="31"/>
@@ -25524,9 +26870,10 @@
       <c r="K455" s="6"/>
       <c r="L455" s="6"/>
       <c r="M455" s="6"/>
-      <c r="N455" s="6"/>
-    </row>
-    <row r="456" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N455" s="63"/>
+      <c r="O455" s="6"/>
+    </row>
+    <row r="456" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A456" s="14"/>
       <c r="B456" s="31"/>
       <c r="C456" s="31"/>
@@ -25540,9 +26887,10 @@
       <c r="K456" s="6"/>
       <c r="L456" s="6"/>
       <c r="M456" s="6"/>
-      <c r="N456" s="6"/>
-    </row>
-    <row r="457" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N456" s="63"/>
+      <c r="O456" s="6"/>
+    </row>
+    <row r="457" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A457" s="15" t="s">
         <v>35</v>
       </c>
@@ -25582,11 +26930,14 @@
       <c r="M457" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N457" s="3" t="s">
+      <c r="N457" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="458" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O457" s="3" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="458" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A458" s="14"/>
       <c r="B458" s="31" t="s">
         <v>1211</v>
@@ -25623,8 +26974,11 @@
       <c r="N458" s="51">
         <v>44931</v>
       </c>
-    </row>
-    <row r="459" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O458" s="74" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A459" s="14"/>
       <c r="B459" s="31" t="s">
         <v>1229</v>
@@ -25660,11 +27014,14 @@
       <c r="M459" s="33" t="s">
         <v>1806</v>
       </c>
-      <c r="N459" s="48">
+      <c r="N459" s="50">
         <v>44567</v>
       </c>
-    </row>
-    <row r="460" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O459" s="73" t="s">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A460" s="14"/>
       <c r="B460" s="31" t="s">
         <v>1234</v>
@@ -25702,11 +27059,14 @@
       <c r="M460" s="6" t="s">
         <v>1769</v>
       </c>
-      <c r="N460" s="48">
+      <c r="N460" s="50">
         <v>44567</v>
       </c>
-    </row>
-    <row r="461" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O460" s="73" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="461" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A461" s="14"/>
       <c r="B461" s="31" t="s">
         <v>1243</v>
@@ -25738,11 +27098,14 @@
       <c r="K461" s="6"/>
       <c r="L461" s="6"/>
       <c r="M461" s="6"/>
-      <c r="N461" s="48">
+      <c r="N461" s="50">
         <v>44568</v>
       </c>
-    </row>
-    <row r="462" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O461" s="73" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="462" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A462" s="14"/>
       <c r="B462" s="31" t="s">
         <v>1252</v>
@@ -25774,11 +27137,12 @@
       <c r="K462" s="6"/>
       <c r="L462" s="6"/>
       <c r="M462" s="6"/>
-      <c r="N462" s="49">
+      <c r="N462" s="54">
         <v>44835</v>
       </c>
-    </row>
-    <row r="463" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O462" s="54"/>
+    </row>
+    <row r="463" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A463" s="14"/>
       <c r="B463" s="31" t="s">
         <v>1260</v>
@@ -25815,8 +27179,11 @@
       <c r="N463" s="52">
         <v>44937</v>
       </c>
-    </row>
-    <row r="464" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O463" s="76" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="464" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A464" s="14"/>
       <c r="B464" s="31" t="s">
         <v>1366</v>
@@ -25852,11 +27219,14 @@
       <c r="M464" s="6" t="s">
         <v>1781</v>
       </c>
-      <c r="N464" s="48">
+      <c r="N464" s="50">
         <v>44567</v>
       </c>
-    </row>
-    <row r="465" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O464" s="73" t="s">
+        <v>3366</v>
+      </c>
+    </row>
+    <row r="465" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A465" s="14"/>
       <c r="B465" s="31" t="s">
         <v>1877</v>
@@ -25889,8 +27259,9 @@
       <c r="N465" s="6" t="s">
         <v>3258</v>
       </c>
-    </row>
-    <row r="466" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O465" s="6"/>
+    </row>
+    <row r="466" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A466" s="14" t="s">
         <v>2749</v>
       </c>
@@ -25911,8 +27282,9 @@
       <c r="L466" s="6"/>
       <c r="M466" s="6"/>
       <c r="N466" s="6"/>
-    </row>
-    <row r="467" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O466" s="6"/>
+    </row>
+    <row r="467" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A467" s="14" t="s">
         <v>2749</v>
       </c>
@@ -25944,10 +27316,15 @@
       <c r="M467" s="7" t="s">
         <v>2104</v>
       </c>
-      <c r="N467" s="6"/>
-    </row>
-    <row r="468" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A468" s="14"/>
+      <c r="N467" s="63"/>
+      <c r="O467" s="7" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A468" s="14" t="s">
+        <v>2836</v>
+      </c>
       <c r="B468" s="31" t="s">
         <v>454</v>
       </c>
@@ -25976,9 +27353,10 @@
       <c r="K468" s="6"/>
       <c r="L468" s="6"/>
       <c r="M468" s="6"/>
-      <c r="N468" s="6"/>
-    </row>
-    <row r="469" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N468" s="63"/>
+      <c r="O468" s="6"/>
+    </row>
+    <row r="469" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A469" s="14"/>
       <c r="B469" s="31"/>
       <c r="C469" s="31"/>
@@ -25992,9 +27370,10 @@
       <c r="K469" s="6"/>
       <c r="L469" s="6"/>
       <c r="M469" s="6"/>
-      <c r="N469" s="6"/>
-    </row>
-    <row r="470" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N469" s="63"/>
+      <c r="O469" s="6"/>
+    </row>
+    <row r="470" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A470" s="14"/>
       <c r="B470" s="31"/>
       <c r="C470" s="31"/>
@@ -26008,9 +27387,10 @@
       <c r="K470" s="6"/>
       <c r="L470" s="6"/>
       <c r="M470" s="6"/>
-      <c r="N470" s="6"/>
-    </row>
-    <row r="471" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N470" s="63"/>
+      <c r="O470" s="6"/>
+    </row>
+    <row r="471" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A471" s="14"/>
       <c r="B471" s="31"/>
       <c r="C471" s="31"/>
@@ -26024,9 +27404,10 @@
       <c r="K471" s="6"/>
       <c r="L471" s="6"/>
       <c r="M471" s="6"/>
-      <c r="N471" s="6"/>
-    </row>
-    <row r="472" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N471" s="63"/>
+      <c r="O471" s="6"/>
+    </row>
+    <row r="472" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A472" s="14"/>
       <c r="B472" s="24"/>
       <c r="C472" s="24"/>
@@ -26042,9 +27423,10 @@
       <c r="K472" s="6"/>
       <c r="L472" s="6"/>
       <c r="M472" s="6"/>
-      <c r="N472" s="6"/>
-    </row>
-    <row r="473" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N472" s="63"/>
+      <c r="O472" s="6"/>
+    </row>
+    <row r="473" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A473" s="15" t="s">
         <v>215</v>
       </c>
@@ -26084,11 +27466,14 @@
       <c r="M473" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N473" s="3" t="s">
+      <c r="N473" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="474" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O473" s="3" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="474" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A474" s="14" t="s">
         <v>2836</v>
       </c>
@@ -26124,9 +27509,12 @@
       </c>
       <c r="L474" s="6"/>
       <c r="M474" s="6"/>
-      <c r="N474" s="6"/>
-    </row>
-    <row r="475" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N474" s="63"/>
+      <c r="O474" s="7" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="475" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A475" s="14" t="s">
         <v>2749</v>
       </c>
@@ -26156,9 +27544,10 @@
       <c r="K475" s="6"/>
       <c r="L475" s="6"/>
       <c r="M475" s="6"/>
-      <c r="N475" s="6"/>
-    </row>
-    <row r="476" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N475" s="63"/>
+      <c r="O475" s="6"/>
+    </row>
+    <row r="476" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A476" s="14" t="s">
         <v>2749</v>
       </c>
@@ -26196,9 +27585,10 @@
       <c r="M476" s="35">
         <v>47307</v>
       </c>
-      <c r="N476" s="6"/>
-    </row>
-    <row r="477" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N476" s="63"/>
+      <c r="O476" s="6"/>
+    </row>
+    <row r="477" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A477" s="14"/>
       <c r="B477" s="24" t="s">
         <v>3290</v>
@@ -26228,9 +27618,10 @@
       <c r="K477" s="6"/>
       <c r="L477" s="6"/>
       <c r="M477" s="6"/>
-      <c r="N477" s="6"/>
-    </row>
-    <row r="478" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N477" s="63"/>
+      <c r="O477" s="6"/>
+    </row>
+    <row r="478" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A478" s="14"/>
       <c r="B478" s="24"/>
       <c r="C478" s="24"/>
@@ -26244,9 +27635,10 @@
       <c r="K478" s="6"/>
       <c r="L478" s="6"/>
       <c r="M478" s="6"/>
-      <c r="N478" s="6"/>
-    </row>
-    <row r="479" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N478" s="63"/>
+      <c r="O478" s="6"/>
+    </row>
+    <row r="479" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A479" s="14"/>
       <c r="B479" s="24"/>
       <c r="C479" s="24"/>
@@ -26260,9 +27652,10 @@
       <c r="K479" s="6"/>
       <c r="L479" s="6"/>
       <c r="M479" s="6"/>
-      <c r="N479" s="6"/>
-    </row>
-    <row r="480" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N479" s="63"/>
+      <c r="O479" s="6"/>
+    </row>
+    <row r="480" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A480" s="14"/>
       <c r="B480" s="24"/>
       <c r="C480" s="24"/>
@@ -26276,9 +27669,10 @@
       <c r="K480" s="6"/>
       <c r="L480" s="6"/>
       <c r="M480" s="6"/>
-      <c r="N480" s="6"/>
-    </row>
-    <row r="481" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N480" s="63"/>
+      <c r="O480" s="6"/>
+    </row>
+    <row r="481" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A481" s="15" t="s">
         <v>216</v>
       </c>
@@ -26318,11 +27712,14 @@
       <c r="M481" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N481" s="3" t="s">
+      <c r="N481" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="482" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O481" s="3" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="482" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A482" s="14"/>
       <c r="B482" s="31" t="s">
         <v>931</v>
@@ -26358,11 +27755,14 @@
       <c r="M482" s="6" t="s">
         <v>1755</v>
       </c>
-      <c r="N482" s="51" t="s">
+      <c r="N482" s="59" t="s">
         <v>3253</v>
       </c>
-    </row>
-    <row r="483" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O482" s="74" t="s">
+        <v>3415</v>
+      </c>
+    </row>
+    <row r="483" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A483" s="14"/>
       <c r="B483" s="31" t="s">
         <v>1219</v>
@@ -26403,8 +27803,11 @@
       <c r="N483" s="48">
         <v>44567</v>
       </c>
-    </row>
-    <row r="484" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O483" s="73" t="s">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="484" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A484" s="14" t="s">
         <v>2749</v>
       </c>
@@ -26442,9 +27845,12 @@
       <c r="M484" s="35">
         <v>45390</v>
       </c>
-      <c r="N484" s="6"/>
-    </row>
-    <row r="485" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N484" s="63"/>
+      <c r="O484" s="7" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="485" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A485" s="14"/>
       <c r="B485" s="31" t="s">
         <v>1643</v>
@@ -26474,11 +27880,14 @@
       <c r="K485" s="6"/>
       <c r="L485" s="6"/>
       <c r="M485" s="6"/>
-      <c r="N485" s="51">
+      <c r="N485" s="59">
         <v>45292</v>
       </c>
-    </row>
-    <row r="486" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O485" s="74" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="486" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A486" s="14" t="s">
         <v>2749</v>
       </c>
@@ -26514,9 +27923,12 @@
       </c>
       <c r="L486" s="6"/>
       <c r="M486" s="6"/>
-      <c r="N486" s="6"/>
-    </row>
-    <row r="487" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N486" s="63"/>
+      <c r="O486" s="7" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="487" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A487" s="14"/>
       <c r="B487" s="31" t="s">
         <v>1981</v>
@@ -26544,11 +27956,12 @@
       <c r="K487" s="6"/>
       <c r="L487" s="6"/>
       <c r="M487" s="6"/>
-      <c r="N487" s="52">
+      <c r="N487" s="60">
         <v>45293</v>
       </c>
-    </row>
-    <row r="488" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O487" s="52"/>
+    </row>
+    <row r="488" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A488" s="43" t="s">
         <v>2749</v>
       </c>
@@ -26580,9 +27993,10 @@
       <c r="K488" s="6"/>
       <c r="L488" s="6"/>
       <c r="M488" s="6"/>
-      <c r="N488" s="6"/>
-    </row>
-    <row r="489" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N488" s="63"/>
+      <c r="O488" s="6"/>
+    </row>
+    <row r="489" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A489" s="14" t="s">
         <v>2749</v>
       </c>
@@ -26612,9 +28026,10 @@
       <c r="K489" s="6"/>
       <c r="L489" s="6"/>
       <c r="M489" s="6"/>
-      <c r="N489" s="6"/>
-    </row>
-    <row r="490" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N489" s="63"/>
+      <c r="O489" s="6"/>
+    </row>
+    <row r="490" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A490" s="14"/>
       <c r="B490" s="24"/>
       <c r="C490" s="24"/>
@@ -26628,9 +28043,10 @@
       <c r="K490" s="6"/>
       <c r="L490" s="6"/>
       <c r="M490" s="6"/>
-      <c r="N490" s="6"/>
-    </row>
-    <row r="491" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N490" s="63"/>
+      <c r="O490" s="6"/>
+    </row>
+    <row r="491" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A491" s="14"/>
       <c r="B491" s="24"/>
       <c r="C491" s="24"/>
@@ -26644,9 +28060,10 @@
       <c r="K491" s="6"/>
       <c r="L491" s="6"/>
       <c r="M491" s="6"/>
-      <c r="N491" s="6"/>
-    </row>
-    <row r="492" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N491" s="63"/>
+      <c r="O491" s="6"/>
+    </row>
+    <row r="492" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A492" s="15" t="s">
         <v>36</v>
       </c>
@@ -26686,11 +28103,14 @@
       <c r="M492" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N492" s="3" t="s">
+      <c r="N492" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="493" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O492" s="3" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A493" s="14"/>
       <c r="B493" s="24"/>
       <c r="C493" s="24"/>
@@ -26704,9 +28124,10 @@
       <c r="K493" s="6"/>
       <c r="L493" s="6"/>
       <c r="M493" s="6"/>
-      <c r="N493" s="6"/>
-    </row>
-    <row r="494" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N493" s="63"/>
+      <c r="O493" s="6"/>
+    </row>
+    <row r="494" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A494" s="14"/>
       <c r="B494" s="24"/>
       <c r="C494" s="24"/>
@@ -26720,9 +28141,10 @@
       <c r="K494" s="6"/>
       <c r="L494" s="6"/>
       <c r="M494" s="6"/>
-      <c r="N494" s="6"/>
-    </row>
-    <row r="495" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N494" s="63"/>
+      <c r="O494" s="6"/>
+    </row>
+    <row r="495" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A495" s="14"/>
       <c r="B495" s="24"/>
       <c r="C495" s="24"/>
@@ -26736,9 +28158,10 @@
       <c r="K495" s="6"/>
       <c r="L495" s="6"/>
       <c r="M495" s="6"/>
-      <c r="N495" s="6"/>
-    </row>
-    <row r="496" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N495" s="63"/>
+      <c r="O495" s="6"/>
+    </row>
+    <row r="496" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A496" s="14"/>
       <c r="B496" s="24"/>
       <c r="C496" s="24"/>
@@ -26752,9 +28175,10 @@
       <c r="K496" s="6"/>
       <c r="L496" s="6"/>
       <c r="M496" s="6"/>
-      <c r="N496" s="6"/>
-    </row>
-    <row r="497" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N496" s="63"/>
+      <c r="O496" s="6"/>
+    </row>
+    <row r="497" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A497" s="14"/>
       <c r="B497" s="24"/>
       <c r="C497" s="24"/>
@@ -26768,9 +28192,10 @@
       <c r="K497" s="6"/>
       <c r="L497" s="6"/>
       <c r="M497" s="6"/>
-      <c r="N497" s="6"/>
-    </row>
-    <row r="498" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N497" s="63"/>
+      <c r="O497" s="6"/>
+    </row>
+    <row r="498" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A498" s="14"/>
       <c r="B498" s="24"/>
       <c r="C498" s="24"/>
@@ -26784,9 +28209,10 @@
       <c r="K498" s="6"/>
       <c r="L498" s="6"/>
       <c r="M498" s="6"/>
-      <c r="N498" s="6"/>
-    </row>
-    <row r="499" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N498" s="63"/>
+      <c r="O498" s="6"/>
+    </row>
+    <row r="499" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A499" s="15" t="s">
         <v>37</v>
       </c>
@@ -26826,11 +28252,14 @@
       <c r="M499" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N499" s="3" t="s">
+      <c r="N499" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="500" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O499" s="3" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="500" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A500" s="14"/>
       <c r="B500" s="24"/>
       <c r="C500" s="24"/>
@@ -26844,9 +28273,10 @@
       <c r="K500" s="6"/>
       <c r="L500" s="6"/>
       <c r="M500" s="6"/>
-      <c r="N500" s="6"/>
-    </row>
-    <row r="501" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N500" s="63"/>
+      <c r="O500" s="6"/>
+    </row>
+    <row r="501" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A501" s="14"/>
       <c r="B501" s="24"/>
       <c r="C501" s="24"/>
@@ -26860,9 +28290,10 @@
       <c r="K501" s="6"/>
       <c r="L501" s="6"/>
       <c r="M501" s="6"/>
-      <c r="N501" s="6"/>
-    </row>
-    <row r="502" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N501" s="63"/>
+      <c r="O501" s="6"/>
+    </row>
+    <row r="502" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A502" s="15" t="s">
         <v>38</v>
       </c>
@@ -26902,11 +28333,14 @@
       <c r="M502" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N502" s="3" t="s">
+      <c r="N502" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="503" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O502" s="3" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="503" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A503" s="14"/>
       <c r="B503" s="24" t="s">
         <v>1347</v>
@@ -26940,10 +28374,15 @@
       </c>
       <c r="L503" s="6"/>
       <c r="M503" s="6"/>
-      <c r="N503" s="6"/>
-    </row>
-    <row r="504" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A504" s="14"/>
+      <c r="N503" s="63"/>
+      <c r="O503" s="7" t="s">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="504" spans="1:15" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A504" s="14" t="s">
+        <v>2749</v>
+      </c>
       <c r="B504" s="47" t="s">
         <v>499</v>
       </c>
@@ -26972,9 +28411,12 @@
       <c r="M504" s="6" t="s">
         <v>1779</v>
       </c>
-      <c r="N504" s="6"/>
-    </row>
-    <row r="505" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N504" s="63"/>
+      <c r="O504" s="7" t="s">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="505" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A505" s="14"/>
       <c r="B505" s="24" t="s">
         <v>1943</v>
@@ -27008,11 +28450,12 @@
       </c>
       <c r="L505" s="6"/>
       <c r="M505" s="6"/>
-      <c r="N505" s="51">
+      <c r="N505" s="59">
         <v>45294</v>
       </c>
-    </row>
-    <row r="506" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O505" s="51"/>
+    </row>
+    <row r="506" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A506" s="14"/>
       <c r="B506" s="24" t="s">
         <v>2290</v>
@@ -27044,9 +28487,10 @@
       <c r="K506" s="6"/>
       <c r="L506" s="6"/>
       <c r="M506" s="6"/>
-      <c r="N506" s="6"/>
-    </row>
-    <row r="507" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N506" s="63"/>
+      <c r="O506" s="6"/>
+    </row>
+    <row r="507" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A507" s="14"/>
       <c r="B507" s="24" t="s">
         <v>2303</v>
@@ -27072,9 +28516,10 @@
       <c r="K507" s="6"/>
       <c r="L507" s="6"/>
       <c r="M507" s="6"/>
-      <c r="N507" s="6"/>
-    </row>
-    <row r="508" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N507" s="63"/>
+      <c r="O507" s="6"/>
+    </row>
+    <row r="508" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A508" s="14"/>
       <c r="B508" s="24" t="s">
         <v>2901</v>
@@ -27100,9 +28545,10 @@
       <c r="K508" s="6"/>
       <c r="L508" s="6"/>
       <c r="M508" s="6"/>
-      <c r="N508" s="6"/>
-    </row>
-    <row r="509" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N508" s="63"/>
+      <c r="O508" s="6"/>
+    </row>
+    <row r="509" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A509" s="14"/>
       <c r="B509" s="24"/>
       <c r="C509" s="24"/>
@@ -27116,9 +28562,10 @@
       <c r="K509" s="6"/>
       <c r="L509" s="6"/>
       <c r="M509" s="6"/>
-      <c r="N509" s="6"/>
-    </row>
-    <row r="510" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N509" s="63"/>
+      <c r="O509" s="6"/>
+    </row>
+    <row r="510" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A510" s="14"/>
       <c r="B510" s="24"/>
       <c r="C510" s="24"/>
@@ -27132,9 +28579,10 @@
       <c r="K510" s="6"/>
       <c r="L510" s="6"/>
       <c r="M510" s="6"/>
-      <c r="N510" s="6"/>
-    </row>
-    <row r="511" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N510" s="63"/>
+      <c r="O510" s="6"/>
+    </row>
+    <row r="511" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A511" s="15" t="s">
         <v>39</v>
       </c>
@@ -27174,11 +28622,14 @@
       <c r="M511" s="21" t="s">
         <v>753</v>
       </c>
-      <c r="N511" s="3" t="s">
+      <c r="N511" s="66" t="s">
         <v>3247</v>
       </c>
-    </row>
-    <row r="512" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O511" s="3" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="512" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A512" s="14"/>
       <c r="B512" s="31" t="s">
         <v>1818</v>
@@ -27210,11 +28661,12 @@
       <c r="K512" s="14"/>
       <c r="L512" s="14"/>
       <c r="M512" s="14"/>
-      <c r="N512" s="51" t="s">
+      <c r="N512" s="59" t="s">
         <v>3249</v>
       </c>
-    </row>
-    <row r="513" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O512" s="51"/>
+    </row>
+    <row r="513" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A513" s="14"/>
       <c r="B513" s="14"/>
       <c r="C513" s="14"/>
@@ -27228,9 +28680,10 @@
       <c r="K513" s="14"/>
       <c r="L513" s="14"/>
       <c r="M513" s="14"/>
-      <c r="N513" s="14"/>
-    </row>
-    <row r="514" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N513" s="71"/>
+      <c r="O513" s="14"/>
+    </row>
+    <row r="514" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A514" s="14"/>
       <c r="B514" s="14"/>
       <c r="C514" s="14"/>
@@ -27244,9 +28697,10 @@
       <c r="K514" s="14"/>
       <c r="L514" s="14"/>
       <c r="M514" s="14"/>
-      <c r="N514" s="14"/>
-    </row>
-    <row r="515" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N514" s="71"/>
+      <c r="O514" s="14"/>
+    </row>
+    <row r="515" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A515" s="14"/>
       <c r="B515" s="14"/>
       <c r="C515" s="14"/>
@@ -27260,9 +28714,10 @@
       <c r="K515" s="14"/>
       <c r="L515" s="14"/>
       <c r="M515" s="14"/>
-      <c r="N515" s="14"/>
-    </row>
-    <row r="516" spans="1:14" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N515" s="71"/>
+      <c r="O515" s="14"/>
+    </row>
+    <row r="516" spans="1:15" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A516" s="17"/>
       <c r="B516" s="25"/>
       <c r="C516" s="25"/>
@@ -27276,7 +28731,8 @@
       <c r="K516" s="18"/>
       <c r="L516" s="18"/>
       <c r="M516" s="18"/>
-      <c r="N516" s="18"/>
+      <c r="N516" s="72"/>
+      <c r="O516" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
